--- a/nomenclatura.xlsx
+++ b/nomenclatura.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\bikeStations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE824583-EB57-47BD-94CB-04BE6F605AA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclatura" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="587">
   <si>
     <t>id</t>
   </si>
@@ -1785,12 +1792,15 @@
   </si>
   <si>
     <t>spacesToLeft</t>
+  </si>
+  <si>
+    <t>TotalSpaces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1839,27 +1849,31 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I287" totalsRowShown="0">
-  <autoFilter ref="A1:I287"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="obcn"/>
-    <tableColumn id="4" name="location"/>
-    <tableColumn id="5" name="latitude"/>
-    <tableColumn id="6" name="longitude"/>
-    <tableColumn id="7" name="status"/>
-    <tableColumn id="8" name="bikesToTake" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:J287" totalsRowShown="0">
+  <autoFilter ref="A1:J287" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="obcn"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="location"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="latitude"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="longitude"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="status"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="bikesToTake" dataDxfId="1">
       <calculatedColumnFormula>RANDBETWEEN(1,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="spacesToLeft" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="spacesToLeft" dataDxfId="0">
       <calculatedColumnFormula>RANDBETWEEN(1,10)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="10" xr3:uid="{25BBE594-615A-4131-83AB-E17B793C8EAD}" name="TotalSpaces"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2127,25 +2141,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I287"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="43.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2173,8 +2187,11 @@
       <c r="I1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2197,15 +2214,18 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:I65" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <f t="shared" ref="H2:H65" ca="1" si="0">RANDBETWEEN(1,10)</f>
+        <v>5</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I65" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2229,14 +2249,17 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2260,14 +2283,17 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2291,14 +2317,14 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2322,14 +2348,14 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2353,14 +2379,14 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -2384,14 +2410,14 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2415,14 +2441,14 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2446,14 +2472,14 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2477,14 +2503,14 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2508,14 +2534,14 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2543,10 +2569,10 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2574,10 +2600,10 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -2601,14 +2627,14 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -2632,14 +2658,14 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
@@ -2663,14 +2689,14 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
@@ -2694,14 +2720,14 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2725,14 +2751,14 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -2756,14 +2782,14 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>254</v>
       </c>
@@ -2787,14 +2813,14 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>23</v>
       </c>
@@ -2822,10 +2848,10 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2849,14 +2875,14 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2884,10 +2910,10 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2911,14 +2937,14 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
@@ -2942,14 +2968,14 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2973,14 +2999,14 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
@@ -3008,10 +3034,10 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -3035,14 +3061,14 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -3066,14 +3092,14 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -3097,14 +3123,14 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -3128,14 +3154,14 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -3159,14 +3185,14 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -3190,14 +3216,14 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>36</v>
       </c>
@@ -3221,14 +3247,14 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>37</v>
       </c>
@@ -3256,10 +3282,10 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>38</v>
       </c>
@@ -3283,14 +3309,14 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39</v>
       </c>
@@ -3314,14 +3340,14 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -3345,14 +3371,14 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -3376,14 +3402,14 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>42</v>
       </c>
@@ -3407,14 +3433,14 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>43</v>
       </c>
@@ -3438,14 +3464,14 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>44</v>
       </c>
@@ -3469,14 +3495,14 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>45</v>
       </c>
@@ -3500,14 +3526,14 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>46</v>
       </c>
@@ -3531,14 +3557,14 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>47</v>
       </c>
@@ -3562,14 +3588,14 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>48</v>
       </c>
@@ -3593,14 +3619,14 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>49</v>
       </c>
@@ -3624,14 +3650,14 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>50</v>
       </c>
@@ -3655,14 +3681,14 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>51</v>
       </c>
@@ -3686,14 +3712,14 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>52</v>
       </c>
@@ -3721,10 +3747,10 @@
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>53</v>
       </c>
@@ -3748,14 +3774,14 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>54</v>
       </c>
@@ -3779,14 +3805,14 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>55</v>
       </c>
@@ -3810,14 +3836,14 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>56</v>
       </c>
@@ -3845,10 +3871,10 @@
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>57</v>
       </c>
@@ -3872,14 +3898,14 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>58</v>
       </c>
@@ -3903,14 +3929,14 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>59</v>
       </c>
@@ -3938,10 +3964,10 @@
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>60</v>
       </c>
@@ -3965,14 +3991,14 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>61</v>
       </c>
@@ -3996,14 +4022,14 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>62</v>
       </c>
@@ -4027,14 +4053,14 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>63</v>
       </c>
@@ -4058,14 +4084,14 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>64</v>
       </c>
@@ -4089,14 +4115,14 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>65</v>
       </c>
@@ -4124,10 +4150,10 @@
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>66</v>
       </c>
@@ -4151,14 +4177,14 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>67</v>
       </c>
@@ -4182,14 +4208,14 @@
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" ca="1" si="2">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I129" ca="1" si="3">RANDBETWEEN(1,10)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>68</v>
       </c>
@@ -4217,10 +4243,10 @@
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>69</v>
       </c>
@@ -4244,14 +4270,14 @@
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>70</v>
       </c>
@@ -4275,14 +4301,14 @@
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>71</v>
       </c>
@@ -4306,14 +4332,14 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>72</v>
       </c>
@@ -4337,14 +4363,14 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>73</v>
       </c>
@@ -4368,14 +4394,14 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>74</v>
       </c>
@@ -4399,14 +4425,14 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>75</v>
       </c>
@@ -4430,14 +4456,14 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>76</v>
       </c>
@@ -4461,14 +4487,14 @@
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>77</v>
       </c>
@@ -4492,14 +4518,14 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>78</v>
       </c>
@@ -4523,14 +4549,14 @@
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>79</v>
       </c>
@@ -4554,14 +4580,14 @@
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>80</v>
       </c>
@@ -4585,14 +4611,14 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>81</v>
       </c>
@@ -4616,14 +4642,14 @@
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>82</v>
       </c>
@@ -4651,10 +4677,10 @@
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>83</v>
       </c>
@@ -4678,14 +4704,14 @@
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>84</v>
       </c>
@@ -4716,7 +4742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>85</v>
       </c>
@@ -4740,14 +4766,14 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>86</v>
       </c>
@@ -4771,14 +4797,14 @@
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>87</v>
       </c>
@@ -4802,14 +4828,14 @@
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>88</v>
       </c>
@@ -4833,14 +4859,14 @@
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>154</v>
       </c>
@@ -4864,14 +4890,14 @@
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>155</v>
       </c>
@@ -4895,14 +4921,14 @@
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>156</v>
       </c>
@@ -4926,14 +4952,14 @@
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>157</v>
       </c>
@@ -4957,14 +4983,14 @@
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>158</v>
       </c>
@@ -4988,14 +5014,14 @@
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>159</v>
       </c>
@@ -5019,14 +5045,14 @@
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>160</v>
       </c>
@@ -5050,14 +5076,14 @@
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>161</v>
       </c>
@@ -5081,14 +5107,14 @@
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>162</v>
       </c>
@@ -5112,14 +5138,14 @@
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>163</v>
       </c>
@@ -5143,14 +5169,14 @@
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>164</v>
       </c>
@@ -5174,14 +5200,14 @@
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>165</v>
       </c>
@@ -5205,14 +5231,14 @@
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>166</v>
       </c>
@@ -5236,14 +5262,14 @@
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>167</v>
       </c>
@@ -5271,10 +5297,10 @@
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>168</v>
       </c>
@@ -5298,14 +5324,14 @@
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>169</v>
       </c>
@@ -5333,10 +5359,10 @@
       </c>
       <c r="I103">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>170</v>
       </c>
@@ -5360,14 +5386,14 @@
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>171</v>
       </c>
@@ -5391,14 +5417,14 @@
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I105">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>172</v>
       </c>
@@ -5422,14 +5448,14 @@
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>173</v>
       </c>
@@ -5453,14 +5479,14 @@
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>174</v>
       </c>
@@ -5484,14 +5510,14 @@
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>175</v>
       </c>
@@ -5515,14 +5541,14 @@
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>176</v>
       </c>
@@ -5546,14 +5572,14 @@
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I110">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>177</v>
       </c>
@@ -5577,14 +5603,14 @@
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I111">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>178</v>
       </c>
@@ -5608,14 +5634,14 @@
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>179</v>
       </c>
@@ -5639,14 +5665,14 @@
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I113">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>180</v>
       </c>
@@ -5670,14 +5696,14 @@
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I114">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>181</v>
       </c>
@@ -5701,14 +5727,14 @@
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I115">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>182</v>
       </c>
@@ -5732,14 +5758,14 @@
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>183</v>
       </c>
@@ -5763,14 +5789,14 @@
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>184</v>
       </c>
@@ -5794,14 +5820,14 @@
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I118">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>185</v>
       </c>
@@ -5825,14 +5851,14 @@
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I119">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>186</v>
       </c>
@@ -5856,14 +5882,14 @@
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I120">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>187</v>
       </c>
@@ -5887,14 +5913,14 @@
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I121">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>188</v>
       </c>
@@ -5918,14 +5944,14 @@
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>189</v>
       </c>
@@ -5949,14 +5975,14 @@
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I123">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>190</v>
       </c>
@@ -5980,14 +6006,14 @@
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I124">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>191</v>
       </c>
@@ -6011,14 +6037,14 @@
       </c>
       <c r="H125">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I125">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>192</v>
       </c>
@@ -6042,14 +6068,14 @@
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I126">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>193</v>
       </c>
@@ -6073,14 +6099,14 @@
       </c>
       <c r="H127">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I127">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>194</v>
       </c>
@@ -6104,14 +6130,14 @@
       </c>
       <c r="H128">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I128">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>195</v>
       </c>
@@ -6135,14 +6161,14 @@
       </c>
       <c r="H129">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I129">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>196</v>
       </c>
@@ -6170,10 +6196,10 @@
       </c>
       <c r="I130">
         <f t="shared" ref="I130:I193" ca="1" si="5">RANDBETWEEN(1,10)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>197</v>
       </c>
@@ -6197,14 +6223,14 @@
       </c>
       <c r="H131">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I131">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>198</v>
       </c>
@@ -6228,14 +6254,14 @@
       </c>
       <c r="H132">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I132">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>199</v>
       </c>
@@ -6259,14 +6285,14 @@
       </c>
       <c r="H133">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I133">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>200</v>
       </c>
@@ -6290,14 +6316,14 @@
       </c>
       <c r="H134">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I134">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>201</v>
       </c>
@@ -6321,14 +6347,14 @@
       </c>
       <c r="H135">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I135">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>202</v>
       </c>
@@ -6352,14 +6378,14 @@
       </c>
       <c r="H136">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I136">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>203</v>
       </c>
@@ -6383,14 +6409,14 @@
       </c>
       <c r="H137">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>204</v>
       </c>
@@ -6414,14 +6440,14 @@
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>205</v>
       </c>
@@ -6445,14 +6471,14 @@
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I139">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>206</v>
       </c>
@@ -6476,14 +6502,14 @@
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I140">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>207</v>
       </c>
@@ -6507,14 +6533,14 @@
       </c>
       <c r="H141">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>208</v>
       </c>
@@ -6538,14 +6564,14 @@
       </c>
       <c r="H142">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I142">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>209</v>
       </c>
@@ -6569,14 +6595,14 @@
       </c>
       <c r="H143">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>210</v>
       </c>
@@ -6604,10 +6630,10 @@
       </c>
       <c r="I144">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>211</v>
       </c>
@@ -6631,14 +6657,14 @@
       </c>
       <c r="H145">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I145">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>212</v>
       </c>
@@ -6662,14 +6688,14 @@
       </c>
       <c r="H146">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>213</v>
       </c>
@@ -6693,14 +6719,14 @@
       </c>
       <c r="H147">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I147">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>214</v>
       </c>
@@ -6724,14 +6750,14 @@
       </c>
       <c r="H148">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>215</v>
       </c>
@@ -6755,14 +6781,14 @@
       </c>
       <c r="H149">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I149">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>216</v>
       </c>
@@ -6786,14 +6812,14 @@
       </c>
       <c r="H150">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <f t="shared" ca="1" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>217</v>
       </c>
@@ -6821,10 +6847,10 @@
       </c>
       <c r="I151">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>218</v>
       </c>
@@ -6848,14 +6874,14 @@
       </c>
       <c r="H152">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I152">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>219</v>
       </c>
@@ -6883,10 +6909,10 @@
       </c>
       <c r="I153">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>220</v>
       </c>
@@ -6910,14 +6936,14 @@
       </c>
       <c r="H154">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>221</v>
       </c>
@@ -6945,10 +6971,10 @@
       </c>
       <c r="I155">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>222</v>
       </c>
@@ -6972,14 +6998,14 @@
       </c>
       <c r="H156">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>253</v>
       </c>
@@ -7003,14 +7029,14 @@
       </c>
       <c r="H157">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I157">
         <f t="shared" ca="1" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>224</v>
       </c>
@@ -7034,14 +7060,14 @@
       </c>
       <c r="H158">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I158">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>225</v>
       </c>
@@ -7065,14 +7091,14 @@
       </c>
       <c r="H159">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I159">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>226</v>
       </c>
@@ -7096,14 +7122,14 @@
       </c>
       <c r="H160">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I160">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>227</v>
       </c>
@@ -7127,14 +7153,14 @@
       </c>
       <c r="H161">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I161">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>228</v>
       </c>
@@ -7158,14 +7184,14 @@
       </c>
       <c r="H162">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I162">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>229</v>
       </c>
@@ -7189,14 +7215,14 @@
       </c>
       <c r="H163">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>230</v>
       </c>
@@ -7220,14 +7246,14 @@
       </c>
       <c r="H164">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I164">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>231</v>
       </c>
@@ -7251,14 +7277,14 @@
       </c>
       <c r="H165">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I165">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>232</v>
       </c>
@@ -7282,14 +7308,14 @@
       </c>
       <c r="H166">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I166">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>233</v>
       </c>
@@ -7313,14 +7339,14 @@
       </c>
       <c r="H167">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I167">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>234</v>
       </c>
@@ -7344,14 +7370,14 @@
       </c>
       <c r="H168">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I168">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>235</v>
       </c>
@@ -7375,14 +7401,14 @@
       </c>
       <c r="H169">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I169">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>236</v>
       </c>
@@ -7406,14 +7432,14 @@
       </c>
       <c r="H170">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I170">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>237</v>
       </c>
@@ -7437,14 +7463,14 @@
       </c>
       <c r="H171">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I171">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>238</v>
       </c>
@@ -7468,14 +7494,14 @@
       </c>
       <c r="H172">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I172">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>239</v>
       </c>
@@ -7499,14 +7525,14 @@
       </c>
       <c r="H173">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I173">
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>240</v>
       </c>
@@ -7530,14 +7556,14 @@
       </c>
       <c r="H174">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I174">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>241</v>
       </c>
@@ -7561,14 +7587,14 @@
       </c>
       <c r="H175">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I175">
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>242</v>
       </c>
@@ -7592,14 +7618,14 @@
       </c>
       <c r="H176">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I176">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>243</v>
       </c>
@@ -7623,14 +7649,14 @@
       </c>
       <c r="H177">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>244</v>
       </c>
@@ -7654,14 +7680,14 @@
       </c>
       <c r="H178">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>246</v>
       </c>
@@ -7689,10 +7715,10 @@
       </c>
       <c r="I179">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>247</v>
       </c>
@@ -7716,14 +7742,14 @@
       </c>
       <c r="H180">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I180">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>248</v>
       </c>
@@ -7747,14 +7773,14 @@
       </c>
       <c r="H181">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I181">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>249</v>
       </c>
@@ -7778,14 +7804,14 @@
       </c>
       <c r="H182">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>255</v>
       </c>
@@ -7809,14 +7835,14 @@
       </c>
       <c r="H183">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I183">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>256</v>
       </c>
@@ -7840,14 +7866,14 @@
       </c>
       <c r="H184">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I184">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>257</v>
       </c>
@@ -7871,14 +7897,14 @@
       </c>
       <c r="H185">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I185">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>258</v>
       </c>
@@ -7902,14 +7928,14 @@
       </c>
       <c r="H186">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>259</v>
       </c>
@@ -7933,14 +7959,14 @@
       </c>
       <c r="H187">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>260</v>
       </c>
@@ -7964,14 +7990,14 @@
       </c>
       <c r="H188">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I188">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>261</v>
       </c>
@@ -7995,14 +8021,14 @@
       </c>
       <c r="H189">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I189">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>262</v>
       </c>
@@ -8026,14 +8052,14 @@
       </c>
       <c r="H190">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I190">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>263</v>
       </c>
@@ -8057,14 +8083,14 @@
       </c>
       <c r="H191">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I191">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>264</v>
       </c>
@@ -8088,14 +8114,14 @@
       </c>
       <c r="H192">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I192">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>265</v>
       </c>
@@ -8119,14 +8145,14 @@
       </c>
       <c r="H193">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>266</v>
       </c>
@@ -8150,14 +8176,14 @@
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H257" ca="1" si="6">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I194">
         <f t="shared" ref="I194:I257" ca="1" si="7">RANDBETWEEN(1,10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>267</v>
       </c>
@@ -8181,14 +8207,14 @@
       </c>
       <c r="H195">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I195">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>268</v>
       </c>
@@ -8212,14 +8238,14 @@
       </c>
       <c r="H196">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I196">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>269</v>
       </c>
@@ -8243,14 +8269,14 @@
       </c>
       <c r="H197">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I197">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>270</v>
       </c>
@@ -8274,14 +8300,14 @@
       </c>
       <c r="H198">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I198">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>271</v>
       </c>
@@ -8305,14 +8331,14 @@
       </c>
       <c r="H199">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I199">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>272</v>
       </c>
@@ -8336,14 +8362,14 @@
       </c>
       <c r="H200">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I200">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>273</v>
       </c>
@@ -8367,14 +8393,14 @@
       </c>
       <c r="H201">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I201">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>274</v>
       </c>
@@ -8398,14 +8424,14 @@
       </c>
       <c r="H202">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I202">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>275</v>
       </c>
@@ -8429,14 +8455,14 @@
       </c>
       <c r="H203">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I203">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>276</v>
       </c>
@@ -8460,14 +8486,14 @@
       </c>
       <c r="H204">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I204">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>277</v>
       </c>
@@ -8491,14 +8517,14 @@
       </c>
       <c r="H205">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I205">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>278</v>
       </c>
@@ -8522,14 +8548,14 @@
       </c>
       <c r="H206">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I206">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>279</v>
       </c>
@@ -8553,14 +8579,14 @@
       </c>
       <c r="H207">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I207">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>280</v>
       </c>
@@ -8584,14 +8610,14 @@
       </c>
       <c r="H208">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I208">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>281</v>
       </c>
@@ -8615,14 +8641,14 @@
       </c>
       <c r="H209">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I209">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>282</v>
       </c>
@@ -8646,14 +8672,14 @@
       </c>
       <c r="H210">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I210">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>283</v>
       </c>
@@ -8677,14 +8703,14 @@
       </c>
       <c r="H211">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I211">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>284</v>
       </c>
@@ -8708,14 +8734,14 @@
       </c>
       <c r="H212">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I212">
         <f t="shared" ca="1" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>285</v>
       </c>
@@ -8739,14 +8765,14 @@
       </c>
       <c r="H213">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>142</v>
       </c>
@@ -8770,14 +8796,14 @@
       </c>
       <c r="H214">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>143</v>
       </c>
@@ -8801,14 +8827,14 @@
       </c>
       <c r="H215">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I215">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>144</v>
       </c>
@@ -8832,14 +8858,14 @@
       </c>
       <c r="H216">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I216">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>145</v>
       </c>
@@ -8863,14 +8889,14 @@
       </c>
       <c r="H217">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I217">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>146</v>
       </c>
@@ -8894,14 +8920,14 @@
       </c>
       <c r="H218">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I218">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>251</v>
       </c>
@@ -8925,14 +8951,14 @@
       </c>
       <c r="H219">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I219">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>148</v>
       </c>
@@ -8956,14 +8982,14 @@
       </c>
       <c r="H220">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I220">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>149</v>
       </c>
@@ -8987,14 +9013,14 @@
       </c>
       <c r="H221">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I221">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>150</v>
       </c>
@@ -9018,14 +9044,14 @@
       </c>
       <c r="H222">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I222">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>151</v>
       </c>
@@ -9049,14 +9075,14 @@
       </c>
       <c r="H223">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I223">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>152</v>
       </c>
@@ -9080,14 +9106,14 @@
       </c>
       <c r="H224">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I224">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>153</v>
       </c>
@@ -9111,14 +9137,14 @@
       </c>
       <c r="H225">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I225">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>91</v>
       </c>
@@ -9142,14 +9168,14 @@
       </c>
       <c r="H226">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I226">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>92</v>
       </c>
@@ -9173,14 +9199,14 @@
       </c>
       <c r="H227">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I227">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>93</v>
       </c>
@@ -9208,10 +9234,10 @@
       </c>
       <c r="I228">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>95</v>
       </c>
@@ -9235,14 +9261,14 @@
       </c>
       <c r="H229">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I229">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>96</v>
       </c>
@@ -9266,14 +9292,14 @@
       </c>
       <c r="H230">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I230">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>98</v>
       </c>
@@ -9297,14 +9323,14 @@
       </c>
       <c r="H231">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I231">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>100</v>
       </c>
@@ -9328,14 +9354,14 @@
       </c>
       <c r="H232">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>101</v>
       </c>
@@ -9359,14 +9385,14 @@
       </c>
       <c r="H233">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I233">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>102</v>
       </c>
@@ -9390,14 +9416,14 @@
       </c>
       <c r="H234">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I234">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>103</v>
       </c>
@@ -9421,14 +9447,14 @@
       </c>
       <c r="H235">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I235">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>104</v>
       </c>
@@ -9452,14 +9478,14 @@
       </c>
       <c r="H236">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I236">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>105</v>
       </c>
@@ -9483,14 +9509,14 @@
       </c>
       <c r="H237">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I237">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>106</v>
       </c>
@@ -9514,14 +9540,14 @@
       </c>
       <c r="H238">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I238">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>107</v>
       </c>
@@ -9545,14 +9571,14 @@
       </c>
       <c r="H239">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I239">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>108</v>
       </c>
@@ -9576,14 +9602,14 @@
       </c>
       <c r="H240">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I240">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>110</v>
       </c>
@@ -9607,14 +9633,14 @@
       </c>
       <c r="H241">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I241">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>111</v>
       </c>
@@ -9638,14 +9664,14 @@
       </c>
       <c r="H242">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I242">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>112</v>
       </c>
@@ -9669,14 +9695,14 @@
       </c>
       <c r="H243">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>286</v>
       </c>
@@ -9700,14 +9726,14 @@
       </c>
       <c r="H244">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I244">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>287</v>
       </c>
@@ -9731,14 +9757,14 @@
       </c>
       <c r="H245">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I245">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>115</v>
       </c>
@@ -9766,10 +9792,10 @@
       </c>
       <c r="I246">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>117</v>
       </c>
@@ -9793,14 +9819,14 @@
       </c>
       <c r="H247">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I247">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>118</v>
       </c>
@@ -9824,14 +9850,14 @@
       </c>
       <c r="H248">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>119</v>
       </c>
@@ -9855,14 +9881,14 @@
       </c>
       <c r="H249">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I249">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>120</v>
       </c>
@@ -9886,14 +9912,14 @@
       </c>
       <c r="H250">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I250">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>125</v>
       </c>
@@ -9921,10 +9947,10 @@
       </c>
       <c r="I251">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>126</v>
       </c>
@@ -9948,14 +9974,14 @@
       </c>
       <c r="H252">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>127</v>
       </c>
@@ -9979,14 +10005,14 @@
       </c>
       <c r="H253">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I253">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>128</v>
       </c>
@@ -10010,14 +10036,14 @@
       </c>
       <c r="H254">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I254">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>129</v>
       </c>
@@ -10041,14 +10067,14 @@
       </c>
       <c r="H255">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I255">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>130</v>
       </c>
@@ -10072,14 +10098,14 @@
       </c>
       <c r="H256">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I256">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>131</v>
       </c>
@@ -10103,14 +10129,14 @@
       </c>
       <c r="H257">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I257">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>132</v>
       </c>
@@ -10134,14 +10160,14 @@
       </c>
       <c r="H258">
         <f t="shared" ref="H258:H287" ca="1" si="8">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I258">
         <f t="shared" ref="I258:I287" ca="1" si="9">RANDBETWEEN(1,10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>133</v>
       </c>
@@ -10169,10 +10195,10 @@
       </c>
       <c r="I259">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>134</v>
       </c>
@@ -10196,14 +10222,14 @@
       </c>
       <c r="H260">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I260">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>135</v>
       </c>
@@ -10227,14 +10253,14 @@
       </c>
       <c r="H261">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I261">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>136</v>
       </c>
@@ -10258,14 +10284,14 @@
       </c>
       <c r="H262">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I262">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>137</v>
       </c>
@@ -10289,14 +10315,14 @@
       </c>
       <c r="H263">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I263">
         <f t="shared" ca="1" si="9"/>
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>139</v>
       </c>
@@ -10324,10 +10350,10 @@
       </c>
       <c r="I264">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>140</v>
       </c>
@@ -10351,14 +10377,14 @@
       </c>
       <c r="H265">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I265">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>141</v>
       </c>
@@ -10382,14 +10408,14 @@
       </c>
       <c r="H266">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I266">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>288</v>
       </c>
@@ -10413,14 +10439,14 @@
       </c>
       <c r="H267">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I267">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>289</v>
       </c>
@@ -10444,14 +10470,14 @@
       </c>
       <c r="H268">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I268">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>290</v>
       </c>
@@ -10475,14 +10501,14 @@
       </c>
       <c r="H269">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I269">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>291</v>
       </c>
@@ -10506,14 +10532,14 @@
       </c>
       <c r="H270">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I270">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>292</v>
       </c>
@@ -10537,14 +10563,14 @@
       </c>
       <c r="H271">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I271">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>293</v>
       </c>
@@ -10568,14 +10594,14 @@
       </c>
       <c r="H272">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I272">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>294</v>
       </c>
@@ -10599,14 +10625,14 @@
       </c>
       <c r="H273">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I273">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>295</v>
       </c>
@@ -10630,14 +10656,14 @@
       </c>
       <c r="H274">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I274">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>296</v>
       </c>
@@ -10661,14 +10687,14 @@
       </c>
       <c r="H275">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>22</v>
       </c>
@@ -10692,14 +10718,14 @@
       </c>
       <c r="H276">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I276">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>223</v>
       </c>
@@ -10723,14 +10749,14 @@
       </c>
       <c r="H277">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I277">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>250</v>
       </c>
@@ -10754,14 +10780,14 @@
       </c>
       <c r="H278">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I278">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>147</v>
       </c>
@@ -10785,14 +10811,14 @@
       </c>
       <c r="H279">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I279">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>94</v>
       </c>
@@ -10816,14 +10842,14 @@
       </c>
       <c r="H280">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I280">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>97</v>
       </c>
@@ -10847,14 +10873,14 @@
       </c>
       <c r="H281">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I281">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>99</v>
       </c>
@@ -10878,14 +10904,14 @@
       </c>
       <c r="H282">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I282">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>109</v>
       </c>
@@ -10909,14 +10935,14 @@
       </c>
       <c r="H283">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>113</v>
       </c>
@@ -10940,14 +10966,14 @@
       </c>
       <c r="H284">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I284">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>114</v>
       </c>
@@ -10971,14 +10997,14 @@
       </c>
       <c r="H285">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I285">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>116</v>
       </c>
@@ -11002,14 +11028,14 @@
       </c>
       <c r="H286">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I286">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>138</v>
       </c>
@@ -11033,11 +11059,11 @@
       </c>
       <c r="H287">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I287">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/nomenclatura.xlsx
+++ b/nomenclatura.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\bikeStations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Desktop/bikeStations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE824583-EB57-47BD-94CB-04BE6F605AA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nomenclatura" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,15 +28,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="561">
   <si>
     <t>id</t>
   </si>
@@ -1260,15 +1259,6 @@
     <t>GDL-199</t>
   </si>
   <si>
-    <t>(GDL-200) Alcalde / Ávila Camacho*</t>
-  </si>
-  <si>
-    <t>GDL-200</t>
-  </si>
-  <si>
-    <t>PLANNED</t>
-  </si>
-  <si>
     <t>(GDL-201) Gonzalo Curiel /Alcalde</t>
   </si>
   <si>
@@ -1717,75 +1707,6 @@
   </si>
   <si>
     <t>POLÍGONO NUEVO</t>
-  </si>
-  <si>
-    <t>Ex-GDL-020 Juan Manuel / C.General Coronado</t>
-  </si>
-  <si>
-    <t>Ex-GDL-020</t>
-  </si>
-  <si>
-    <t>NOT_IN_SERVICE</t>
-  </si>
-  <si>
-    <t>Ex-GDL-156 C. Crepúsculo / Av. Mariano Otero</t>
-  </si>
-  <si>
-    <t>Ex-GDL-156</t>
-  </si>
-  <si>
-    <t>Ex-GDL-182 Av. Plan de San Luis / Av. Enríque</t>
-  </si>
-  <si>
-    <t>EX GDL-182</t>
-  </si>
-  <si>
-    <t>Ex-TLQ-006 C. Zalatitán / Av. Francisco Silva</t>
-  </si>
-  <si>
-    <t>Ex-TLQ-006</t>
-  </si>
-  <si>
-    <t>Ex-ZPN-004</t>
-  </si>
-  <si>
-    <t>Ex-ZPN-007 C. Libertad / Nicolás Bravo</t>
-  </si>
-  <si>
-    <t>Ex-ZPN-007</t>
-  </si>
-  <si>
-    <t>Ex-ZPN-009 C. Del Corral / C. Nicolás Bravo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ex-ZPN-009 </t>
-  </si>
-  <si>
-    <t>Ex-ZPN-019 C. Cabecera Mpal. Juan Manuel / C.</t>
-  </si>
-  <si>
-    <t>Ex-ZPN-019</t>
-  </si>
-  <si>
-    <t>EX-ZPN-023 C. Juan Diego / C. Sarcófago</t>
-  </si>
-  <si>
-    <t>ExZPN-023</t>
-  </si>
-  <si>
-    <t>EX-ZPN-024 Manuel H. Alatorre / C. Industria</t>
-  </si>
-  <si>
-    <t>ExZPN-024</t>
-  </si>
-  <si>
-    <t>Ex-ZPN-026 C. 16 Sep. / C. Fray A. de Segovia</t>
-  </si>
-  <si>
-    <t>Ex-ZPN-026</t>
-  </si>
-  <si>
-    <t>Ex-ZPN-044</t>
   </si>
   <si>
     <t>bikesToTake</t>
@@ -1800,7 +1721,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1857,23 +1778,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:J287" totalsRowShown="0">
-  <autoFilter ref="A1:J287" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J274" totalsRowShown="0">
+  <autoFilter ref="A1:J274"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="obcn"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="location"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="latitude"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="longitude"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="status"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="bikesToTake" dataDxfId="1">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="obcn"/>
+    <tableColumn id="4" name="location"/>
+    <tableColumn id="5" name="latitude"/>
+    <tableColumn id="6" name="longitude"/>
+    <tableColumn id="7" name="status"/>
+    <tableColumn id="8" name="bikesToTake" dataDxfId="1">
       <calculatedColumnFormula>RANDBETWEEN(1,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="spacesToLeft" dataDxfId="0">
+    <tableColumn id="9" name="spacesToLeft" dataDxfId="0">
       <calculatedColumnFormula>RANDBETWEEN(1,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{25BBE594-615A-4131-83AB-E17B793C8EAD}" name="TotalSpaces"/>
+    <tableColumn id="10" name="TotalSpaces"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2141,22 +2062,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J287"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A201" sqref="A201:XFD201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="2" max="2" width="43.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2182,16 +2103,16 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="I1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="J1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2215,17 +2136,17 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I65" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2249,17 +2170,17 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2283,17 +2204,17 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2317,14 +2238,14 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2348,14 +2269,14 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2379,14 +2300,14 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -2410,14 +2331,14 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2441,14 +2362,14 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2472,14 +2393,14 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2507,10 +2428,10 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2534,14 +2455,14 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2565,14 +2486,14 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2596,14 +2517,14 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
@@ -2627,14 +2548,14 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
@@ -2658,14 +2579,14 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
@@ -2689,14 +2610,14 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
@@ -2720,14 +2641,14 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2751,14 +2672,14 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21</v>
       </c>
@@ -2782,14 +2703,14 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>254</v>
       </c>
@@ -2813,14 +2734,14 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>23</v>
       </c>
@@ -2851,7 +2772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2875,14 +2796,14 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2906,14 +2827,14 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2941,10 +2862,10 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>27</v>
       </c>
@@ -2968,14 +2889,14 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2999,14 +2920,14 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>29</v>
       </c>
@@ -3030,14 +2951,14 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -3061,14 +2982,14 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>31</v>
       </c>
@@ -3092,14 +3013,14 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>32</v>
       </c>
@@ -3123,14 +3044,14 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>33</v>
       </c>
@@ -3154,14 +3075,14 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>34</v>
       </c>
@@ -3185,14 +3106,14 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>35</v>
       </c>
@@ -3216,14 +3137,14 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>36</v>
       </c>
@@ -3251,10 +3172,10 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>37</v>
       </c>
@@ -3278,14 +3199,14 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
@@ -3309,14 +3230,14 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>39</v>
       </c>
@@ -3340,14 +3261,14 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>40</v>
       </c>
@@ -3371,14 +3292,14 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>41</v>
       </c>
@@ -3402,14 +3323,14 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>42</v>
       </c>
@@ -3433,14 +3354,14 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>43</v>
       </c>
@@ -3468,10 +3389,10 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>44</v>
       </c>
@@ -3495,14 +3416,14 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>45</v>
       </c>
@@ -3526,14 +3447,14 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>46</v>
       </c>
@@ -3557,14 +3478,14 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>47</v>
       </c>
@@ -3588,14 +3509,14 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>48</v>
       </c>
@@ -3623,10 +3544,10 @@
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>49</v>
       </c>
@@ -3650,14 +3571,14 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50</v>
       </c>
@@ -3681,14 +3602,14 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>51</v>
       </c>
@@ -3712,14 +3633,14 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>52</v>
       </c>
@@ -3743,14 +3664,14 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>53</v>
       </c>
@@ -3774,14 +3695,14 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>54</v>
       </c>
@@ -3805,14 +3726,14 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>55</v>
       </c>
@@ -3836,14 +3757,14 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>56</v>
       </c>
@@ -3867,14 +3788,14 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>57</v>
       </c>
@@ -3898,14 +3819,14 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>58</v>
       </c>
@@ -3929,14 +3850,14 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>59</v>
       </c>
@@ -3960,14 +3881,14 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>60</v>
       </c>
@@ -3991,14 +3912,14 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>61</v>
       </c>
@@ -4022,14 +3943,14 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>62</v>
       </c>
@@ -4053,14 +3974,14 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>63</v>
       </c>
@@ -4084,14 +4005,14 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>64</v>
       </c>
@@ -4115,14 +4036,14 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>65</v>
       </c>
@@ -4146,14 +4067,14 @@
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>66</v>
       </c>
@@ -4177,14 +4098,14 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>67</v>
       </c>
@@ -4208,14 +4129,14 @@
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" ca="1" si="2">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I129" ca="1" si="3">RANDBETWEEN(1,10)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>68</v>
       </c>
@@ -4239,14 +4160,14 @@
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>69</v>
       </c>
@@ -4270,14 +4191,14 @@
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>70</v>
       </c>
@@ -4301,14 +4222,14 @@
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>71</v>
       </c>
@@ -4332,14 +4253,14 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>72</v>
       </c>
@@ -4363,14 +4284,14 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>73</v>
       </c>
@@ -4394,14 +4315,14 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>74</v>
       </c>
@@ -4425,14 +4346,14 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>75</v>
       </c>
@@ -4456,14 +4377,14 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>76</v>
       </c>
@@ -4487,14 +4408,14 @@
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>77</v>
       </c>
@@ -4518,14 +4439,14 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>78</v>
       </c>
@@ -4553,10 +4474,10 @@
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>79</v>
       </c>
@@ -4580,14 +4501,14 @@
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>80</v>
       </c>
@@ -4611,14 +4532,14 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>81</v>
       </c>
@@ -4642,14 +4563,14 @@
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>82</v>
       </c>
@@ -4673,14 +4594,14 @@
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
@@ -4704,14 +4625,14 @@
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
@@ -4735,14 +4656,14 @@
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
@@ -4766,14 +4687,14 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
@@ -4797,14 +4718,14 @@
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
@@ -4828,14 +4749,14 @@
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>88</v>
       </c>
@@ -4859,14 +4780,14 @@
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>154</v>
       </c>
@@ -4890,14 +4811,14 @@
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>155</v>
       </c>
@@ -4928,7 +4849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>156</v>
       </c>
@@ -4952,14 +4873,14 @@
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>157</v>
       </c>
@@ -4983,14 +4904,14 @@
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>158</v>
       </c>
@@ -5014,14 +4935,14 @@
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>159</v>
       </c>
@@ -5045,14 +4966,14 @@
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>160</v>
       </c>
@@ -5076,14 +4997,14 @@
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>161</v>
       </c>
@@ -5107,14 +5028,14 @@
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>162</v>
       </c>
@@ -5142,10 +5063,10 @@
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>163</v>
       </c>
@@ -5169,14 +5090,14 @@
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>164</v>
       </c>
@@ -5200,14 +5121,14 @@
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>165</v>
       </c>
@@ -5235,10 +5156,10 @@
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>166</v>
       </c>
@@ -5262,14 +5183,14 @@
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>167</v>
       </c>
@@ -5293,14 +5214,14 @@
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>168</v>
       </c>
@@ -5324,14 +5245,14 @@
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>169</v>
       </c>
@@ -5355,14 +5276,14 @@
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>170</v>
       </c>
@@ -5386,14 +5307,14 @@
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>171</v>
       </c>
@@ -5417,14 +5338,14 @@
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I105">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>172</v>
       </c>
@@ -5452,10 +5373,10 @@
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>173</v>
       </c>
@@ -5479,14 +5400,14 @@
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>174</v>
       </c>
@@ -5510,14 +5431,14 @@
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I108">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>175</v>
       </c>
@@ -5541,14 +5462,14 @@
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I109">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>176</v>
       </c>
@@ -5572,14 +5493,14 @@
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I110">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>177</v>
       </c>
@@ -5603,14 +5524,14 @@
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I111">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>178</v>
       </c>
@@ -5634,14 +5555,14 @@
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I112">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>179</v>
       </c>
@@ -5665,14 +5586,14 @@
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>180</v>
       </c>
@@ -5696,14 +5617,14 @@
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>181</v>
       </c>
@@ -5727,14 +5648,14 @@
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>182</v>
       </c>
@@ -5758,14 +5679,14 @@
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I116">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>183</v>
       </c>
@@ -5789,14 +5710,14 @@
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I117">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>184</v>
       </c>
@@ -5820,14 +5741,14 @@
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I118">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>185</v>
       </c>
@@ -5851,14 +5772,14 @@
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I119">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>186</v>
       </c>
@@ -5886,10 +5807,10 @@
       </c>
       <c r="I120">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>187</v>
       </c>
@@ -5913,14 +5834,14 @@
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>188</v>
       </c>
@@ -5944,14 +5865,14 @@
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I122">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>189</v>
       </c>
@@ -5975,14 +5896,14 @@
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>190</v>
       </c>
@@ -6006,14 +5927,14 @@
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I124">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>191</v>
       </c>
@@ -6037,14 +5958,14 @@
       </c>
       <c r="H125">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I125">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>192</v>
       </c>
@@ -6068,14 +5989,14 @@
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I126">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>193</v>
       </c>
@@ -6099,14 +6020,14 @@
       </c>
       <c r="H127">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>194</v>
       </c>
@@ -6130,14 +6051,14 @@
       </c>
       <c r="H128">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>195</v>
       </c>
@@ -6161,14 +6082,14 @@
       </c>
       <c r="H129">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I129">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>196</v>
       </c>
@@ -6192,14 +6113,14 @@
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" ca="1" si="4">RANDBETWEEN(1,10)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I130">
         <f t="shared" ref="I130:I193" ca="1" si="5">RANDBETWEEN(1,10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>197</v>
       </c>
@@ -6227,10 +6148,10 @@
       </c>
       <c r="I131">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>198</v>
       </c>
@@ -6254,14 +6175,14 @@
       </c>
       <c r="H132">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I132">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>199</v>
       </c>
@@ -6285,14 +6206,14 @@
       </c>
       <c r="H133">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I133">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>200</v>
       </c>
@@ -6316,14 +6237,14 @@
       </c>
       <c r="H134">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I134">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>201</v>
       </c>
@@ -6347,14 +6268,14 @@
       </c>
       <c r="H135">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I135">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>202</v>
       </c>
@@ -6378,14 +6299,14 @@
       </c>
       <c r="H136">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>203</v>
       </c>
@@ -6409,14 +6330,14 @@
       </c>
       <c r="H137">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I137">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>204</v>
       </c>
@@ -6440,14 +6361,14 @@
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I138">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>205</v>
       </c>
@@ -6471,14 +6392,14 @@
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>206</v>
       </c>
@@ -6502,14 +6423,14 @@
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>207</v>
       </c>
@@ -6533,14 +6454,14 @@
       </c>
       <c r="H141">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I141">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>208</v>
       </c>
@@ -6564,14 +6485,14 @@
       </c>
       <c r="H142">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I142">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>209</v>
       </c>
@@ -6595,14 +6516,14 @@
       </c>
       <c r="H143">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>210</v>
       </c>
@@ -6633,7 +6554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>211</v>
       </c>
@@ -6661,10 +6582,10 @@
       </c>
       <c r="I145">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>212</v>
       </c>
@@ -6688,14 +6609,14 @@
       </c>
       <c r="H146">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I146">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>213</v>
       </c>
@@ -6719,14 +6640,14 @@
       </c>
       <c r="H147">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I147">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>214</v>
       </c>
@@ -6750,14 +6671,14 @@
       </c>
       <c r="H148">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I148">
         <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>215</v>
       </c>
@@ -6785,10 +6706,10 @@
       </c>
       <c r="I149">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>216</v>
       </c>
@@ -6812,14 +6733,14 @@
       </c>
       <c r="H150">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>217</v>
       </c>
@@ -6850,7 +6771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>218</v>
       </c>
@@ -6874,14 +6795,14 @@
       </c>
       <c r="H152">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I152">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>219</v>
       </c>
@@ -6905,14 +6826,14 @@
       </c>
       <c r="H153">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I153">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>220</v>
       </c>
@@ -6936,14 +6857,14 @@
       </c>
       <c r="H154">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I154">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>221</v>
       </c>
@@ -6967,14 +6888,14 @@
       </c>
       <c r="H155">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I155">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>222</v>
       </c>
@@ -6998,14 +6919,14 @@
       </c>
       <c r="H156">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I156">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>253</v>
       </c>
@@ -7029,14 +6950,14 @@
       </c>
       <c r="H157">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I157">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>224</v>
       </c>
@@ -7060,14 +6981,14 @@
       </c>
       <c r="H158">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I158">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>225</v>
       </c>
@@ -7091,14 +7012,14 @@
       </c>
       <c r="H159">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I159">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>226</v>
       </c>
@@ -7122,14 +7043,14 @@
       </c>
       <c r="H160">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>227</v>
       </c>
@@ -7153,14 +7074,14 @@
       </c>
       <c r="H161">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I161">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>228</v>
       </c>
@@ -7184,14 +7105,14 @@
       </c>
       <c r="H162">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>229</v>
       </c>
@@ -7215,14 +7136,14 @@
       </c>
       <c r="H163">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I163">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>230</v>
       </c>
@@ -7245,294 +7166,289 @@
         <v>10</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>231</v>
+      </c>
+      <c r="B165" t="s">
+        <v>336</v>
+      </c>
+      <c r="C165" t="s">
+        <v>337</v>
+      </c>
+      <c r="D165" t="s">
+        <v>327</v>
+      </c>
+      <c r="E165">
+        <v>20.655000000000001</v>
+      </c>
+      <c r="F165">
+        <v>-103.32186</v>
+      </c>
+      <c r="G165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>232</v>
+      </c>
+      <c r="B166" t="s">
+        <v>338</v>
+      </c>
+      <c r="C166" t="s">
+        <v>339</v>
+      </c>
+      <c r="D166" t="s">
+        <v>327</v>
+      </c>
+      <c r="E166">
+        <v>20.652509999999999</v>
+      </c>
+      <c r="F166">
+        <v>-103.32553</v>
+      </c>
+      <c r="G166" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>233</v>
+      </c>
+      <c r="B167" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" t="s">
+        <v>341</v>
+      </c>
+      <c r="D167" t="s">
+        <v>327</v>
+      </c>
+      <c r="E167">
+        <v>20.65475</v>
+      </c>
+      <c r="F167">
+        <v>-103.32719</v>
+      </c>
+      <c r="G167" t="s">
+        <v>10</v>
+      </c>
+      <c r="H167">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>234</v>
+      </c>
+      <c r="B168" t="s">
+        <v>342</v>
+      </c>
+      <c r="C168" t="s">
+        <v>343</v>
+      </c>
+      <c r="D168" t="s">
+        <v>327</v>
+      </c>
+      <c r="E168">
+        <v>20.649619999999999</v>
+      </c>
+      <c r="F168">
+        <v>-103.32356</v>
+      </c>
+      <c r="G168" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>235</v>
+      </c>
+      <c r="B169" t="s">
+        <v>344</v>
+      </c>
+      <c r="C169" t="s">
+        <v>345</v>
+      </c>
+      <c r="D169" t="s">
+        <v>327</v>
+      </c>
+      <c r="E169">
+        <v>20.64874</v>
+      </c>
+      <c r="F169">
+        <v>-103.31939</v>
+      </c>
+      <c r="G169" t="s">
+        <v>10</v>
+      </c>
+      <c r="H169">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I169">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>236</v>
+      </c>
+      <c r="B170" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" t="s">
+        <v>347</v>
+      </c>
+      <c r="D170" t="s">
+        <v>327</v>
+      </c>
+      <c r="E170">
+        <v>20.647069999999999</v>
+      </c>
+      <c r="F170">
+        <v>-103.32147000000001</v>
+      </c>
+      <c r="G170" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I170">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>237</v>
+      </c>
+      <c r="B171" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" t="s">
+        <v>327</v>
+      </c>
+      <c r="E171">
+        <v>20.646979999999999</v>
+      </c>
+      <c r="F171">
+        <v>-103.30619</v>
+      </c>
+      <c r="G171" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>238</v>
+      </c>
+      <c r="B172" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" t="s">
+        <v>351</v>
+      </c>
+      <c r="D172" t="s">
+        <v>327</v>
+      </c>
+      <c r="E172">
+        <v>20.646100000000001</v>
+      </c>
+      <c r="F172">
+        <v>-103.31019999999999</v>
+      </c>
+      <c r="G172" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I172">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>239</v>
+      </c>
+      <c r="B173" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" t="s">
+        <v>353</v>
+      </c>
+      <c r="D173" t="s">
+        <v>327</v>
+      </c>
+      <c r="E173">
+        <v>20.64434</v>
+      </c>
+      <c r="F173">
+        <v>-103.30678</v>
+      </c>
+      <c r="G173" t="s">
+        <v>10</v>
+      </c>
+      <c r="H173">
         <f t="shared" ca="1" si="4"/>
         <v>7</v>
       </c>
-      <c r="I164">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>231</v>
-      </c>
-      <c r="B165" t="s">
-        <v>336</v>
-      </c>
-      <c r="C165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D165" t="s">
-        <v>327</v>
-      </c>
-      <c r="E165">
-        <v>20.655000000000001</v>
-      </c>
-      <c r="F165">
-        <v>-103.32186</v>
-      </c>
-      <c r="G165" t="s">
-        <v>10</v>
-      </c>
-      <c r="H165">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I165">
+      <c r="I173">
         <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>232</v>
-      </c>
-      <c r="B166" t="s">
-        <v>338</v>
-      </c>
-      <c r="C166" t="s">
-        <v>339</v>
-      </c>
-      <c r="D166" t="s">
-        <v>327</v>
-      </c>
-      <c r="E166">
-        <v>20.652509999999999</v>
-      </c>
-      <c r="F166">
-        <v>-103.32553</v>
-      </c>
-      <c r="G166" t="s">
-        <v>10</v>
-      </c>
-      <c r="H166">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I166">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>233</v>
-      </c>
-      <c r="B167" t="s">
-        <v>340</v>
-      </c>
-      <c r="C167" t="s">
-        <v>341</v>
-      </c>
-      <c r="D167" t="s">
-        <v>327</v>
-      </c>
-      <c r="E167">
-        <v>20.65475</v>
-      </c>
-      <c r="F167">
-        <v>-103.32719</v>
-      </c>
-      <c r="G167" t="s">
-        <v>10</v>
-      </c>
-      <c r="H167">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I167">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>234</v>
-      </c>
-      <c r="B168" t="s">
-        <v>342</v>
-      </c>
-      <c r="C168" t="s">
-        <v>343</v>
-      </c>
-      <c r="D168" t="s">
-        <v>327</v>
-      </c>
-      <c r="E168">
-        <v>20.649619999999999</v>
-      </c>
-      <c r="F168">
-        <v>-103.32356</v>
-      </c>
-      <c r="G168" t="s">
-        <v>10</v>
-      </c>
-      <c r="H168">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I168">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>235</v>
-      </c>
-      <c r="B169" t="s">
-        <v>344</v>
-      </c>
-      <c r="C169" t="s">
-        <v>345</v>
-      </c>
-      <c r="D169" t="s">
-        <v>327</v>
-      </c>
-      <c r="E169">
-        <v>20.64874</v>
-      </c>
-      <c r="F169">
-        <v>-103.31939</v>
-      </c>
-      <c r="G169" t="s">
-        <v>10</v>
-      </c>
-      <c r="H169">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I169">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>236</v>
-      </c>
-      <c r="B170" t="s">
-        <v>346</v>
-      </c>
-      <c r="C170" t="s">
-        <v>347</v>
-      </c>
-      <c r="D170" t="s">
-        <v>327</v>
-      </c>
-      <c r="E170">
-        <v>20.647069999999999</v>
-      </c>
-      <c r="F170">
-        <v>-103.32147000000001</v>
-      </c>
-      <c r="G170" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="I170">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>237</v>
-      </c>
-      <c r="B171" t="s">
-        <v>348</v>
-      </c>
-      <c r="C171" t="s">
-        <v>349</v>
-      </c>
-      <c r="D171" t="s">
-        <v>327</v>
-      </c>
-      <c r="E171">
-        <v>20.646979999999999</v>
-      </c>
-      <c r="F171">
-        <v>-103.30619</v>
-      </c>
-      <c r="G171" t="s">
-        <v>10</v>
-      </c>
-      <c r="H171">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I171">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>238</v>
-      </c>
-      <c r="B172" t="s">
-        <v>350</v>
-      </c>
-      <c r="C172" t="s">
-        <v>351</v>
-      </c>
-      <c r="D172" t="s">
-        <v>327</v>
-      </c>
-      <c r="E172">
-        <v>20.646100000000001</v>
-      </c>
-      <c r="F172">
-        <v>-103.31019999999999</v>
-      </c>
-      <c r="G172" t="s">
-        <v>10</v>
-      </c>
-      <c r="H172">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I172">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>239</v>
-      </c>
-      <c r="B173" t="s">
-        <v>352</v>
-      </c>
-      <c r="C173" t="s">
-        <v>353</v>
-      </c>
-      <c r="D173" t="s">
-        <v>327</v>
-      </c>
-      <c r="E173">
-        <v>20.64434</v>
-      </c>
-      <c r="F173">
-        <v>-103.30678</v>
-      </c>
-      <c r="G173" t="s">
-        <v>10</v>
-      </c>
-      <c r="H173">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I173">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>240</v>
       </c>
@@ -7560,10 +7476,10 @@
       </c>
       <c r="I174">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>241</v>
       </c>
@@ -7587,14 +7503,14 @@
       </c>
       <c r="H175">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I175">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>242</v>
       </c>
@@ -7618,14 +7534,14 @@
       </c>
       <c r="H176">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>243</v>
       </c>
@@ -7653,10 +7569,10 @@
       </c>
       <c r="I177">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>244</v>
       </c>
@@ -7680,14 +7596,14 @@
       </c>
       <c r="H178">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I178">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>246</v>
       </c>
@@ -7715,10 +7631,10 @@
       </c>
       <c r="I179">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>247</v>
       </c>
@@ -7742,14 +7658,14 @@
       </c>
       <c r="H180">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I180">
         <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>248</v>
       </c>
@@ -7773,14 +7689,14 @@
       </c>
       <c r="H181">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I181">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>249</v>
       </c>
@@ -7804,14 +7720,14 @@
       </c>
       <c r="H182">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I182">
         <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>255</v>
       </c>
@@ -7835,14 +7751,14 @@
       </c>
       <c r="H183">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I183">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>256</v>
       </c>
@@ -7866,14 +7782,14 @@
       </c>
       <c r="H184">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I184">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>257</v>
       </c>
@@ -7896,15 +7812,13 @@
         <v>10</v>
       </c>
       <c r="H185">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>258</v>
       </c>
@@ -7932,10 +7846,10 @@
       </c>
       <c r="I186">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>259</v>
       </c>
@@ -7959,14 +7873,14 @@
       </c>
       <c r="H187">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I187">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>260</v>
       </c>
@@ -7990,14 +7904,14 @@
       </c>
       <c r="H188">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I188">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>261</v>
       </c>
@@ -8021,14 +7935,14 @@
       </c>
       <c r="H189">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I189">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>262</v>
       </c>
@@ -8052,14 +7966,14 @@
       </c>
       <c r="H190">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I190">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>263</v>
       </c>
@@ -8083,14 +7997,14 @@
       </c>
       <c r="H191">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I191">
         <f t="shared" ca="1" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>264</v>
       </c>
@@ -8114,14 +8028,14 @@
       </c>
       <c r="H192">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I192">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>265</v>
       </c>
@@ -8149,10 +8063,10 @@
       </c>
       <c r="I193">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>266</v>
       </c>
@@ -8175,15 +8089,15 @@
         <v>10</v>
       </c>
       <c r="H194">
-        <f t="shared" ref="H194:H257" ca="1" si="6">RANDBETWEEN(1,10)</f>
+        <f t="shared" ref="H194:H256" ca="1" si="6">RANDBETWEEN(1,10)</f>
+        <v>6</v>
+      </c>
+      <c r="I194">
+        <f t="shared" ref="I194:I256" ca="1" si="7">RANDBETWEEN(1,10)</f>
         <v>4</v>
       </c>
-      <c r="I194">
-        <f t="shared" ref="I194:I257" ca="1" si="7">RANDBETWEEN(1,10)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>267</v>
       </c>
@@ -8207,14 +8121,14 @@
       </c>
       <c r="H195">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>268</v>
       </c>
@@ -8238,14 +8152,14 @@
       </c>
       <c r="H196">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I196">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>269</v>
       </c>
@@ -8269,14 +8183,14 @@
       </c>
       <c r="H197">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I197">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>270</v>
       </c>
@@ -8300,14 +8214,14 @@
       </c>
       <c r="H198">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I198">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>271</v>
       </c>
@@ -8331,14 +8245,14 @@
       </c>
       <c r="H199">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I199">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>272</v>
       </c>
@@ -8362,16 +8276,16 @@
       </c>
       <c r="H200">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I200">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B201" t="s">
         <v>408</v>
@@ -8383,13 +8297,13 @@
         <v>9</v>
       </c>
       <c r="E201">
-        <v>20.69406</v>
+        <v>20.694420000000001</v>
       </c>
       <c r="F201">
-        <v>-103.34824</v>
+        <v>-103.34474</v>
       </c>
       <c r="G201" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="H201">
         <f t="shared" ca="1" si="6"/>
@@ -8397,306 +8311,306 @@
       </c>
       <c r="I201">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B202" t="s">
+        <v>410</v>
+      </c>
+      <c r="C202" t="s">
         <v>411</v>
       </c>
-      <c r="C202" t="s">
-        <v>412</v>
-      </c>
       <c r="D202" t="s">
         <v>9</v>
       </c>
       <c r="E202">
-        <v>20.694420000000001</v>
+        <v>20.698979999999999</v>
       </c>
       <c r="F202">
-        <v>-103.34474</v>
+        <v>-103.34893</v>
       </c>
       <c r="G202" t="s">
         <v>10</v>
       </c>
       <c r="H202">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I202">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B203" t="s">
+        <v>412</v>
+      </c>
+      <c r="C203" t="s">
         <v>413</v>
       </c>
-      <c r="C203" t="s">
-        <v>414</v>
-      </c>
       <c r="D203" t="s">
         <v>9</v>
       </c>
       <c r="E203">
-        <v>20.698979999999999</v>
+        <v>20.70046</v>
       </c>
       <c r="F203">
-        <v>-103.34893</v>
+        <v>-103.35478000000001</v>
       </c>
       <c r="G203" t="s">
         <v>10</v>
       </c>
       <c r="H203">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I203">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B204" t="s">
+        <v>414</v>
+      </c>
+      <c r="C204" t="s">
         <v>415</v>
       </c>
-      <c r="C204" t="s">
-        <v>416</v>
-      </c>
       <c r="D204" t="s">
         <v>9</v>
       </c>
       <c r="E204">
-        <v>20.70046</v>
+        <v>20.665099999999999</v>
       </c>
       <c r="F204">
-        <v>-103.35478000000001</v>
+        <v>-103.36807</v>
       </c>
       <c r="G204" t="s">
         <v>10</v>
       </c>
       <c r="H204">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B205" t="s">
+        <v>416</v>
+      </c>
+      <c r="C205" t="s">
         <v>417</v>
       </c>
-      <c r="C205" t="s">
-        <v>418</v>
-      </c>
       <c r="D205" t="s">
         <v>9</v>
       </c>
       <c r="E205">
-        <v>20.665099999999999</v>
+        <v>20.662649999999999</v>
       </c>
       <c r="F205">
-        <v>-103.36807</v>
+        <v>-103.36554</v>
       </c>
       <c r="G205" t="s">
         <v>10</v>
       </c>
       <c r="H205">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I205">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B206" t="s">
+        <v>418</v>
+      </c>
+      <c r="C206" t="s">
         <v>419</v>
       </c>
-      <c r="C206" t="s">
-        <v>420</v>
-      </c>
       <c r="D206" t="s">
         <v>9</v>
       </c>
       <c r="E206">
-        <v>20.662649999999999</v>
+        <v>20.662310000000002</v>
       </c>
       <c r="F206">
-        <v>-103.36554</v>
+        <v>-103.36011000000001</v>
       </c>
       <c r="G206" t="s">
         <v>10</v>
       </c>
       <c r="H206">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B207" t="s">
+        <v>420</v>
+      </c>
+      <c r="C207" t="s">
         <v>421</v>
       </c>
-      <c r="C207" t="s">
-        <v>422</v>
-      </c>
       <c r="D207" t="s">
         <v>9</v>
       </c>
       <c r="E207">
-        <v>20.662310000000002</v>
+        <v>20.66563</v>
       </c>
       <c r="F207">
-        <v>-103.36011000000001</v>
+        <v>-103.35802</v>
       </c>
       <c r="G207" t="s">
         <v>10</v>
       </c>
       <c r="H207">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I207">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B208" t="s">
+        <v>422</v>
+      </c>
+      <c r="C208" t="s">
         <v>423</v>
       </c>
-      <c r="C208" t="s">
-        <v>424</v>
-      </c>
       <c r="D208" t="s">
         <v>9</v>
       </c>
       <c r="E208">
-        <v>20.66563</v>
+        <v>20.660810000000001</v>
       </c>
       <c r="F208">
-        <v>-103.35802</v>
+        <v>-103.35704</v>
       </c>
       <c r="G208" t="s">
         <v>10</v>
       </c>
       <c r="H208">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I208">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B209" t="s">
+        <v>424</v>
+      </c>
+      <c r="C209" t="s">
         <v>425</v>
       </c>
-      <c r="C209" t="s">
-        <v>426</v>
-      </c>
       <c r="D209" t="s">
         <v>9</v>
       </c>
       <c r="E209">
-        <v>20.660810000000001</v>
+        <v>20.660319999999999</v>
       </c>
       <c r="F209">
-        <v>-103.35704</v>
+        <v>-103.35012999999999</v>
       </c>
       <c r="G209" t="s">
         <v>10</v>
       </c>
       <c r="H209">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I209">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B210" t="s">
+        <v>426</v>
+      </c>
+      <c r="C210" t="s">
         <v>427</v>
       </c>
-      <c r="C210" t="s">
-        <v>428</v>
-      </c>
       <c r="D210" t="s">
         <v>9</v>
       </c>
       <c r="E210">
-        <v>20.660319999999999</v>
+        <v>20.65775</v>
       </c>
       <c r="F210">
-        <v>-103.35012999999999</v>
+        <v>-103.35132</v>
       </c>
       <c r="G210" t="s">
         <v>10</v>
       </c>
       <c r="H210">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I210">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B211" t="s">
+        <v>428</v>
+      </c>
+      <c r="C211" t="s">
         <v>429</v>
       </c>
-      <c r="C211" t="s">
-        <v>430</v>
-      </c>
       <c r="D211" t="s">
         <v>9</v>
       </c>
       <c r="E211">
-        <v>20.65775</v>
+        <v>20.658829999999998</v>
       </c>
       <c r="F211">
-        <v>-103.35132</v>
+        <v>-103.35468</v>
       </c>
       <c r="G211" t="s">
         <v>10</v>
@@ -8710,303 +8624,303 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B212" t="s">
+        <v>430</v>
+      </c>
+      <c r="C212" t="s">
         <v>431</v>
       </c>
-      <c r="C212" t="s">
-        <v>432</v>
-      </c>
       <c r="D212" t="s">
         <v>9</v>
       </c>
       <c r="E212">
-        <v>20.658829999999998</v>
+        <v>20.700469999999999</v>
       </c>
       <c r="F212">
-        <v>-103.35468</v>
+        <v>-103.36158</v>
       </c>
       <c r="G212" t="s">
         <v>10</v>
       </c>
       <c r="H212">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I212">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="B213" t="s">
+        <v>432</v>
+      </c>
+      <c r="C213" t="s">
         <v>433</v>
       </c>
-      <c r="C213" t="s">
-        <v>434</v>
-      </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>327</v>
       </c>
       <c r="E213">
-        <v>20.700469999999999</v>
+        <v>20.644829999999999</v>
       </c>
       <c r="F213">
-        <v>-103.36158</v>
+        <v>-103.31948</v>
       </c>
       <c r="G213" t="s">
         <v>10</v>
       </c>
       <c r="H213">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I213">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B214" t="s">
+        <v>434</v>
+      </c>
+      <c r="C214" t="s">
         <v>435</v>
-      </c>
-      <c r="C214" t="s">
-        <v>436</v>
       </c>
       <c r="D214" t="s">
         <v>327</v>
       </c>
       <c r="E214">
-        <v>20.644829999999999</v>
+        <v>20.6383352</v>
       </c>
       <c r="F214">
-        <v>-103.31948</v>
+        <v>-103.31633170000001</v>
       </c>
       <c r="G214" t="s">
         <v>10</v>
       </c>
       <c r="H214">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I214">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B215" t="s">
+        <v>436</v>
+      </c>
+      <c r="C215" t="s">
         <v>437</v>
-      </c>
-      <c r="C215" t="s">
-        <v>438</v>
       </c>
       <c r="D215" t="s">
         <v>327</v>
       </c>
       <c r="E215">
-        <v>20.6383352</v>
+        <v>20.641929999999999</v>
       </c>
       <c r="F215">
-        <v>-103.31633170000001</v>
+        <v>-103.31366</v>
       </c>
       <c r="G215" t="s">
         <v>10</v>
       </c>
       <c r="H215">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I215">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B216" t="s">
+        <v>438</v>
+      </c>
+      <c r="C216" t="s">
         <v>439</v>
-      </c>
-      <c r="C216" t="s">
-        <v>440</v>
       </c>
       <c r="D216" t="s">
         <v>327</v>
       </c>
       <c r="E216">
-        <v>20.641929999999999</v>
+        <v>20.641850000000002</v>
       </c>
       <c r="F216">
-        <v>-103.31366</v>
+        <v>-103.31059999999999</v>
       </c>
       <c r="G216" t="s">
         <v>10</v>
       </c>
       <c r="H216">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I216">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B217" t="s">
+        <v>440</v>
+      </c>
+      <c r="C217" t="s">
         <v>441</v>
-      </c>
-      <c r="C217" t="s">
-        <v>442</v>
       </c>
       <c r="D217" t="s">
         <v>327</v>
       </c>
       <c r="E217">
-        <v>20.641850000000002</v>
+        <v>20.64188</v>
       </c>
       <c r="F217">
-        <v>-103.31059999999999</v>
+        <v>-103.30651</v>
       </c>
       <c r="G217" t="s">
         <v>10</v>
       </c>
       <c r="H217">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I217">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="B218" t="s">
+        <v>442</v>
+      </c>
+      <c r="C218" t="s">
         <v>443</v>
-      </c>
-      <c r="C218" t="s">
-        <v>444</v>
       </c>
       <c r="D218" t="s">
         <v>327</v>
       </c>
       <c r="E218">
-        <v>20.64188</v>
+        <v>20.639042</v>
       </c>
       <c r="F218">
-        <v>-103.30651</v>
+        <v>-103.301239</v>
       </c>
       <c r="G218" t="s">
         <v>10</v>
       </c>
       <c r="H218">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I218">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="B219" t="s">
+        <v>444</v>
+      </c>
+      <c r="C219" t="s">
         <v>445</v>
-      </c>
-      <c r="C219" t="s">
-        <v>446</v>
       </c>
       <c r="D219" t="s">
         <v>327</v>
       </c>
       <c r="E219">
-        <v>20.639042</v>
+        <v>20.641760000000001</v>
       </c>
       <c r="F219">
-        <v>-103.301239</v>
+        <v>-103.31716</v>
       </c>
       <c r="G219" t="s">
         <v>10</v>
       </c>
       <c r="H219">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B220" t="s">
+        <v>446</v>
+      </c>
+      <c r="C220" t="s">
         <v>447</v>
-      </c>
-      <c r="C220" t="s">
-        <v>448</v>
       </c>
       <c r="D220" t="s">
         <v>327</v>
       </c>
       <c r="E220">
-        <v>20.641760000000001</v>
+        <v>20.63841</v>
       </c>
       <c r="F220">
-        <v>-103.31716</v>
+        <v>-103.31334</v>
       </c>
       <c r="G220" t="s">
         <v>10</v>
       </c>
       <c r="H220">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I220">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B221" t="s">
+        <v>448</v>
+      </c>
+      <c r="C221" t="s">
         <v>449</v>
-      </c>
-      <c r="C221" t="s">
-        <v>450</v>
       </c>
       <c r="D221" t="s">
         <v>327</v>
       </c>
       <c r="E221">
-        <v>20.63841</v>
+        <v>20.638159999999999</v>
       </c>
       <c r="F221">
-        <v>-103.31334</v>
+        <v>-103.31148</v>
       </c>
       <c r="G221" t="s">
         <v>10</v>
@@ -9020,133 +8934,133 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B222" t="s">
+        <v>450</v>
+      </c>
+      <c r="C222" t="s">
         <v>451</v>
-      </c>
-      <c r="C222" t="s">
-        <v>452</v>
       </c>
       <c r="D222" t="s">
         <v>327</v>
       </c>
       <c r="E222">
-        <v>20.638159999999999</v>
+        <v>20.638339999999999</v>
       </c>
       <c r="F222">
-        <v>-103.31148</v>
+        <v>-103.30952000000001</v>
       </c>
       <c r="G222" t="s">
         <v>10</v>
       </c>
       <c r="H222">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I222">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B223" t="s">
+        <v>452</v>
+      </c>
+      <c r="C223" t="s">
         <v>453</v>
-      </c>
-      <c r="C223" t="s">
-        <v>454</v>
       </c>
       <c r="D223" t="s">
         <v>327</v>
       </c>
       <c r="E223">
-        <v>20.638339999999999</v>
+        <v>20.639220000000002</v>
       </c>
       <c r="F223">
-        <v>-103.30952000000001</v>
+        <v>-103.30465</v>
       </c>
       <c r="G223" t="s">
         <v>10</v>
       </c>
       <c r="H223">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I223">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B224" t="s">
+        <v>454</v>
+      </c>
+      <c r="C224" t="s">
         <v>455</v>
-      </c>
-      <c r="C224" t="s">
-        <v>456</v>
       </c>
       <c r="D224" t="s">
         <v>327</v>
       </c>
       <c r="E224">
-        <v>20.639220000000002</v>
+        <v>20.636130000000001</v>
       </c>
       <c r="F224">
-        <v>-103.30465</v>
+        <v>-103.3019</v>
       </c>
       <c r="G224" t="s">
         <v>10</v>
       </c>
       <c r="H224">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I224">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B225" t="s">
+        <v>456</v>
+      </c>
+      <c r="C225" t="s">
         <v>457</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>458</v>
       </c>
-      <c r="D225" t="s">
-        <v>327</v>
-      </c>
       <c r="E225">
-        <v>20.636130000000001</v>
+        <v>20.73244</v>
       </c>
       <c r="F225">
-        <v>-103.3019</v>
+        <v>-103.396083</v>
       </c>
       <c r="G225" t="s">
         <v>10</v>
       </c>
       <c r="H225">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B226" t="s">
         <v>459</v>
@@ -9155,75 +9069,75 @@
         <v>460</v>
       </c>
       <c r="D226" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E226">
-        <v>20.73244</v>
+        <v>20.726375999999998</v>
       </c>
       <c r="F226">
-        <v>-103.396083</v>
+        <v>-103.39746599999999</v>
       </c>
       <c r="G226" t="s">
         <v>10</v>
       </c>
       <c r="H226">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I226">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B227" t="s">
+        <v>461</v>
+      </c>
+      <c r="C227" t="s">
         <v>462</v>
       </c>
-      <c r="C227" t="s">
-        <v>463</v>
-      </c>
       <c r="D227" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E227">
-        <v>20.726375999999998</v>
+        <v>20.723081000000001</v>
       </c>
       <c r="F227">
-        <v>-103.39746599999999</v>
+        <v>-103.398071</v>
       </c>
       <c r="G227" t="s">
         <v>10</v>
       </c>
       <c r="H227">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I227">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B228" t="s">
+        <v>463</v>
+      </c>
+      <c r="C228" t="s">
         <v>464</v>
       </c>
-      <c r="C228" t="s">
-        <v>465</v>
-      </c>
       <c r="D228" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E228">
-        <v>20.723081000000001</v>
+        <v>20.730841000000002</v>
       </c>
       <c r="F228">
-        <v>-103.398071</v>
+        <v>-103.394267</v>
       </c>
       <c r="G228" t="s">
         <v>10</v>
@@ -9237,179 +9151,179 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B229" t="s">
+        <v>465</v>
+      </c>
+      <c r="C229" t="s">
         <v>466</v>
       </c>
-      <c r="C229" t="s">
-        <v>467</v>
-      </c>
       <c r="D229" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E229">
-        <v>20.730841000000002</v>
+        <v>20.725815000000001</v>
       </c>
       <c r="F229">
-        <v>-103.394267</v>
+        <v>-103.395308</v>
       </c>
       <c r="G229" t="s">
         <v>10</v>
       </c>
       <c r="H229">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I229">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B230" t="s">
+        <v>467</v>
+      </c>
+      <c r="C230" t="s">
         <v>468</v>
       </c>
-      <c r="C230" t="s">
-        <v>469</v>
-      </c>
       <c r="D230" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E230">
-        <v>20.725815000000001</v>
+        <v>20.722010000000001</v>
       </c>
       <c r="F230">
-        <v>-103.395308</v>
+        <v>-103.39427000000001</v>
       </c>
       <c r="G230" t="s">
         <v>10</v>
       </c>
       <c r="H230">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I230">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B231" t="s">
+        <v>469</v>
+      </c>
+      <c r="C231" t="s">
         <v>470</v>
       </c>
-      <c r="C231" t="s">
-        <v>471</v>
-      </c>
       <c r="D231" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E231">
-        <v>20.722010000000001</v>
+        <v>20.723889</v>
       </c>
       <c r="F231">
-        <v>-103.39427000000001</v>
+        <v>-103.39458500000001</v>
       </c>
       <c r="G231" t="s">
         <v>10</v>
       </c>
       <c r="H231">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I231">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B232" t="s">
+        <v>471</v>
+      </c>
+      <c r="C232" t="s">
         <v>472</v>
       </c>
-      <c r="C232" t="s">
-        <v>473</v>
-      </c>
       <c r="D232" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E232">
-        <v>20.723889</v>
+        <v>20.726558000000001</v>
       </c>
       <c r="F232">
-        <v>-103.39458500000001</v>
+        <v>-103.389242</v>
       </c>
       <c r="G232" t="s">
         <v>10</v>
       </c>
       <c r="H232">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I232">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B233" t="s">
+        <v>473</v>
+      </c>
+      <c r="C233" t="s">
         <v>474</v>
       </c>
-      <c r="C233" t="s">
-        <v>475</v>
-      </c>
       <c r="D233" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E233">
-        <v>20.726558000000001</v>
+        <v>20.728446000000002</v>
       </c>
       <c r="F233">
-        <v>-103.389242</v>
+        <v>-103.39031</v>
       </c>
       <c r="G233" t="s">
         <v>10</v>
       </c>
       <c r="H233">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I233">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B234" t="s">
+        <v>475</v>
+      </c>
+      <c r="C234" t="s">
         <v>476</v>
       </c>
-      <c r="C234" t="s">
-        <v>477</v>
-      </c>
       <c r="D234" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E234">
-        <v>20.728446000000002</v>
+        <v>20.720438000000001</v>
       </c>
       <c r="F234">
-        <v>-103.39031</v>
+        <v>-103.39189399999999</v>
       </c>
       <c r="G234" t="s">
         <v>10</v>
@@ -9420,337 +9334,337 @@
       </c>
       <c r="I234">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B235" t="s">
+        <v>477</v>
+      </c>
+      <c r="C235" t="s">
         <v>478</v>
       </c>
-      <c r="C235" t="s">
-        <v>479</v>
-      </c>
       <c r="D235" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E235">
-        <v>20.720438000000001</v>
+        <v>20.724043999999999</v>
       </c>
       <c r="F235">
-        <v>-103.39189399999999</v>
+        <v>-103.39080199999999</v>
       </c>
       <c r="G235" t="s">
         <v>10</v>
       </c>
       <c r="H235">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I235">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B236" t="s">
+        <v>479</v>
+      </c>
+      <c r="C236" t="s">
         <v>480</v>
       </c>
-      <c r="C236" t="s">
-        <v>481</v>
-      </c>
       <c r="D236" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E236">
-        <v>20.724043999999999</v>
+        <v>20.725261</v>
       </c>
       <c r="F236">
-        <v>-103.39080199999999</v>
+        <v>-103.387365</v>
       </c>
       <c r="G236" t="s">
         <v>10</v>
       </c>
       <c r="H236">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I236">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B237" t="s">
+        <v>481</v>
+      </c>
+      <c r="C237" t="s">
         <v>482</v>
       </c>
-      <c r="C237" t="s">
-        <v>483</v>
-      </c>
       <c r="D237" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E237">
-        <v>20.725261</v>
+        <v>20.721643</v>
       </c>
       <c r="F237">
-        <v>-103.387365</v>
+        <v>-103.39019999999999</v>
       </c>
       <c r="G237" t="s">
         <v>10</v>
       </c>
       <c r="H237">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B238" t="s">
+        <v>483</v>
+      </c>
+      <c r="C238" t="s">
         <v>484</v>
       </c>
-      <c r="C238" t="s">
-        <v>485</v>
-      </c>
       <c r="D238" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E238">
-        <v>20.721643</v>
+        <v>20.723739999999999</v>
       </c>
       <c r="F238">
-        <v>-103.39019999999999</v>
+        <v>-103.38865699999999</v>
       </c>
       <c r="G238" t="s">
         <v>10</v>
       </c>
       <c r="H238">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I238">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B239" t="s">
+        <v>485</v>
+      </c>
+      <c r="C239" t="s">
         <v>486</v>
       </c>
-      <c r="C239" t="s">
-        <v>487</v>
-      </c>
       <c r="D239" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E239">
-        <v>20.723739999999999</v>
+        <v>20.727067999999999</v>
       </c>
       <c r="F239">
-        <v>-103.38865699999999</v>
+        <v>-103.386286</v>
       </c>
       <c r="G239" t="s">
         <v>10</v>
       </c>
       <c r="H239">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I239">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B240" t="s">
+        <v>487</v>
+      </c>
+      <c r="C240" t="s">
         <v>488</v>
       </c>
-      <c r="C240" t="s">
-        <v>489</v>
-      </c>
       <c r="D240" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E240">
-        <v>20.727067999999999</v>
+        <v>20.721039000000001</v>
       </c>
       <c r="F240">
-        <v>-103.386286</v>
+        <v>-103.386942</v>
       </c>
       <c r="G240" t="s">
         <v>10</v>
       </c>
       <c r="H240">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I240">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B241" t="s">
+        <v>489</v>
+      </c>
+      <c r="C241" t="s">
         <v>490</v>
       </c>
-      <c r="C241" t="s">
-        <v>491</v>
-      </c>
       <c r="D241" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E241">
-        <v>20.721039000000001</v>
+        <v>20.72832</v>
       </c>
       <c r="F241">
-        <v>-103.386942</v>
+        <v>-103.384156</v>
       </c>
       <c r="G241" t="s">
         <v>10</v>
       </c>
       <c r="H241">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I241">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B242" t="s">
+        <v>491</v>
+      </c>
+      <c r="C242" t="s">
         <v>492</v>
       </c>
-      <c r="C242" t="s">
-        <v>493</v>
-      </c>
       <c r="D242" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E242">
-        <v>20.72832</v>
+        <v>20.722427</v>
       </c>
       <c r="F242">
-        <v>-103.384156</v>
+        <v>-103.383</v>
       </c>
       <c r="G242" t="s">
         <v>10</v>
       </c>
       <c r="H242">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I242">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="B243" t="s">
+        <v>493</v>
+      </c>
+      <c r="C243" t="s">
         <v>494</v>
       </c>
-      <c r="C243" t="s">
-        <v>495</v>
-      </c>
       <c r="D243" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E243">
-        <v>20.722427</v>
+        <v>20.732309999999998</v>
       </c>
       <c r="F243">
-        <v>-103.383</v>
+        <v>-103.38763</v>
       </c>
       <c r="G243" t="s">
         <v>10</v>
       </c>
       <c r="H243">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I243">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B244" t="s">
+        <v>495</v>
+      </c>
+      <c r="C244" t="s">
         <v>496</v>
       </c>
-      <c r="C244" t="s">
-        <v>497</v>
-      </c>
       <c r="D244" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E244">
-        <v>20.732309999999998</v>
+        <v>20.73076</v>
       </c>
       <c r="F244">
-        <v>-103.38763</v>
+        <v>-103.38861</v>
       </c>
       <c r="G244" t="s">
         <v>10</v>
       </c>
       <c r="H244">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I244">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>287</v>
+        <v>115</v>
       </c>
       <c r="B245" t="s">
+        <v>497</v>
+      </c>
+      <c r="C245" t="s">
         <v>498</v>
       </c>
-      <c r="C245" t="s">
-        <v>499</v>
-      </c>
       <c r="D245" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E245">
-        <v>20.73076</v>
+        <v>20.727913000000001</v>
       </c>
       <c r="F245">
-        <v>-103.38861</v>
+        <v>-103.38816199999999</v>
       </c>
       <c r="G245" t="s">
         <v>10</v>
@@ -9764,272 +9678,272 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B246" t="s">
+        <v>499</v>
+      </c>
+      <c r="C246" t="s">
         <v>500</v>
       </c>
-      <c r="C246" t="s">
-        <v>501</v>
-      </c>
       <c r="D246" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E246">
-        <v>20.727913000000001</v>
+        <v>20.720452000000002</v>
       </c>
       <c r="F246">
-        <v>-103.38816199999999</v>
+        <v>-103.38862899999999</v>
       </c>
       <c r="G246" t="s">
         <v>10</v>
       </c>
       <c r="H246">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I246">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B247" t="s">
+        <v>501</v>
+      </c>
+      <c r="C247" t="s">
         <v>502</v>
       </c>
-      <c r="C247" t="s">
-        <v>503</v>
-      </c>
       <c r="D247" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E247">
-        <v>20.720452000000002</v>
+        <v>20.729724000000001</v>
       </c>
       <c r="F247">
-        <v>-103.38862899999999</v>
+        <v>-103.39859800000001</v>
       </c>
       <c r="G247" t="s">
         <v>10</v>
       </c>
       <c r="H247">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I247">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B248" t="s">
+        <v>503</v>
+      </c>
+      <c r="C248" t="s">
         <v>504</v>
       </c>
-      <c r="C248" t="s">
-        <v>505</v>
-      </c>
       <c r="D248" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E248">
-        <v>20.729724000000001</v>
+        <v>20.728147</v>
       </c>
       <c r="F248">
-        <v>-103.39859800000001</v>
+        <v>-103.39385799999999</v>
       </c>
       <c r="G248" t="s">
         <v>10</v>
       </c>
       <c r="H248">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I248">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B249" t="s">
+        <v>505</v>
+      </c>
+      <c r="C249" t="s">
         <v>506</v>
       </c>
-      <c r="C249" t="s">
-        <v>507</v>
-      </c>
       <c r="D249" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E249">
-        <v>20.728147</v>
+        <v>20.727381000000001</v>
       </c>
       <c r="F249">
-        <v>-103.39385799999999</v>
+        <v>-103.399976</v>
       </c>
       <c r="G249" t="s">
         <v>10</v>
       </c>
       <c r="H249">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I249">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B250" t="s">
+        <v>507</v>
+      </c>
+      <c r="C250" t="s">
         <v>508</v>
       </c>
-      <c r="C250" t="s">
-        <v>509</v>
-      </c>
       <c r="D250" t="s">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="E250">
-        <v>20.727381000000001</v>
+        <v>20.67342</v>
       </c>
       <c r="F250">
-        <v>-103.399976</v>
+        <v>-103.40945000000001</v>
       </c>
       <c r="G250" t="s">
         <v>10</v>
       </c>
       <c r="H250">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I250">
         <f t="shared" ca="1" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B251" t="s">
+        <v>509</v>
+      </c>
+      <c r="C251" t="s">
         <v>510</v>
       </c>
-      <c r="C251" t="s">
-        <v>511</v>
-      </c>
       <c r="D251" t="s">
         <v>9</v>
       </c>
       <c r="E251">
-        <v>20.67342</v>
+        <v>20.671949999999999</v>
       </c>
       <c r="F251">
-        <v>-103.40945000000001</v>
+        <v>-103.40640999999999</v>
       </c>
       <c r="G251" t="s">
         <v>10</v>
       </c>
       <c r="H251">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I251">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B252" t="s">
+        <v>511</v>
+      </c>
+      <c r="C252" t="s">
         <v>512</v>
       </c>
-      <c r="C252" t="s">
-        <v>513</v>
-      </c>
       <c r="D252" t="s">
         <v>9</v>
       </c>
       <c r="E252">
-        <v>20.671949999999999</v>
+        <v>20.6707</v>
       </c>
       <c r="F252">
-        <v>-103.40640999999999</v>
+        <v>-103.40458</v>
       </c>
       <c r="G252" t="s">
         <v>10</v>
       </c>
       <c r="H252">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I252">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B253" t="s">
+        <v>513</v>
+      </c>
+      <c r="C253" t="s">
         <v>514</v>
       </c>
-      <c r="C253" t="s">
-        <v>515</v>
-      </c>
       <c r="D253" t="s">
         <v>9</v>
       </c>
       <c r="E253">
-        <v>20.6707</v>
+        <v>20.669840000000001</v>
       </c>
       <c r="F253">
-        <v>-103.40458</v>
+        <v>-103.40967999999999</v>
       </c>
       <c r="G253" t="s">
         <v>10</v>
       </c>
       <c r="H253">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I253">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B254" t="s">
+        <v>515</v>
+      </c>
+      <c r="C254" t="s">
         <v>516</v>
       </c>
-      <c r="C254" t="s">
-        <v>517</v>
-      </c>
       <c r="D254" t="s">
         <v>9</v>
       </c>
       <c r="E254">
-        <v>20.669840000000001</v>
+        <v>20.66844</v>
       </c>
       <c r="F254">
-        <v>-103.40967999999999</v>
+        <v>-103.40495</v>
       </c>
       <c r="G254" t="s">
         <v>10</v>
@@ -10040,399 +9954,399 @@
       </c>
       <c r="I254">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B255" t="s">
+        <v>517</v>
+      </c>
+      <c r="C255" t="s">
         <v>518</v>
       </c>
-      <c r="C255" t="s">
-        <v>519</v>
-      </c>
       <c r="D255" t="s">
         <v>9</v>
       </c>
       <c r="E255">
-        <v>20.66844</v>
+        <v>20.667310000000001</v>
       </c>
       <c r="F255">
-        <v>-103.40495</v>
+        <v>-103.40953</v>
       </c>
       <c r="G255" t="s">
         <v>10</v>
       </c>
       <c r="H255">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I255">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B256" t="s">
+        <v>519</v>
+      </c>
+      <c r="C256" t="s">
         <v>520</v>
       </c>
-      <c r="C256" t="s">
-        <v>521</v>
-      </c>
       <c r="D256" t="s">
         <v>9</v>
       </c>
       <c r="E256">
-        <v>20.667310000000001</v>
+        <v>20.666878199999999</v>
       </c>
       <c r="F256">
-        <v>-103.40953</v>
+        <v>-103.4031329</v>
       </c>
       <c r="G256" t="s">
         <v>10</v>
       </c>
       <c r="H256">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I256">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B257" t="s">
+        <v>521</v>
+      </c>
+      <c r="C257" t="s">
         <v>522</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257">
+        <v>20.66581</v>
+      </c>
+      <c r="F257">
+        <v>-103.40662</v>
+      </c>
+      <c r="G257" t="s">
+        <v>10</v>
+      </c>
+      <c r="H257">
+        <f t="shared" ref="H257:H274" ca="1" si="8">RANDBETWEEN(1,10)</f>
+        <v>10</v>
+      </c>
+      <c r="I257">
+        <f t="shared" ref="I257:I274" ca="1" si="9">RANDBETWEEN(1,10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>133</v>
+      </c>
+      <c r="B258" t="s">
         <v>523</v>
       </c>
-      <c r="D257" t="s">
-        <v>9</v>
-      </c>
-      <c r="E257">
-        <v>20.666878199999999</v>
-      </c>
-      <c r="F257">
-        <v>-103.4031329</v>
-      </c>
-      <c r="G257" t="s">
-        <v>10</v>
-      </c>
-      <c r="H257">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I257">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A258">
-        <v>132</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>524</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258">
+        <v>20.663128059999998</v>
+      </c>
+      <c r="F258">
+        <v>-103.4079076</v>
+      </c>
+      <c r="G258" t="s">
+        <v>10</v>
+      </c>
+      <c r="H258">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I258">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>134</v>
+      </c>
+      <c r="B259" t="s">
         <v>525</v>
       </c>
-      <c r="D258" t="s">
-        <v>9</v>
-      </c>
-      <c r="E258">
-        <v>20.66581</v>
-      </c>
-      <c r="F258">
-        <v>-103.40662</v>
-      </c>
-      <c r="G258" t="s">
-        <v>10</v>
-      </c>
-      <c r="H258">
-        <f t="shared" ref="H258:H287" ca="1" si="8">RANDBETWEEN(1,10)</f>
-        <v>3</v>
-      </c>
-      <c r="I258">
-        <f t="shared" ref="I258:I287" ca="1" si="9">RANDBETWEEN(1,10)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A259">
-        <v>133</v>
-      </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>526</v>
       </c>
-      <c r="C259" t="s">
-        <v>527</v>
-      </c>
       <c r="D259" t="s">
         <v>9</v>
       </c>
       <c r="E259">
-        <v>20.663128059999998</v>
+        <v>20.660337609999999</v>
       </c>
       <c r="F259">
-        <v>-103.4079076</v>
+        <v>-103.40375589999999</v>
       </c>
       <c r="G259" t="s">
         <v>10</v>
       </c>
       <c r="H259">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I259">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B260" t="s">
+        <v>527</v>
+      </c>
+      <c r="C260" t="s">
         <v>528</v>
       </c>
-      <c r="C260" t="s">
-        <v>529</v>
-      </c>
       <c r="D260" t="s">
         <v>9</v>
       </c>
       <c r="E260">
-        <v>20.660337609999999</v>
+        <v>20.664629999999999</v>
       </c>
       <c r="F260">
-        <v>-103.40375589999999</v>
+        <v>-103.404</v>
       </c>
       <c r="G260" t="s">
         <v>10</v>
       </c>
       <c r="H260">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I260">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B261" t="s">
+        <v>529</v>
+      </c>
+      <c r="C261" t="s">
         <v>530</v>
       </c>
-      <c r="C261" t="s">
-        <v>531</v>
-      </c>
       <c r="D261" t="s">
         <v>9</v>
       </c>
       <c r="E261">
-        <v>20.664629999999999</v>
+        <v>20.659251050000002</v>
       </c>
       <c r="F261">
-        <v>-103.404</v>
+        <v>-103.4065612</v>
       </c>
       <c r="G261" t="s">
         <v>10</v>
       </c>
       <c r="H261">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I261">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B262" t="s">
+        <v>531</v>
+      </c>
+      <c r="C262" t="s">
         <v>532</v>
       </c>
-      <c r="C262" t="s">
-        <v>533</v>
-      </c>
       <c r="D262" t="s">
         <v>9</v>
       </c>
       <c r="E262">
-        <v>20.659251050000002</v>
+        <v>20.659379999999999</v>
       </c>
       <c r="F262">
-        <v>-103.4065612</v>
+        <v>-103.40195</v>
       </c>
       <c r="G262" t="s">
         <v>10</v>
       </c>
       <c r="H262">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I262">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B263" t="s">
+        <v>533</v>
+      </c>
+      <c r="C263" t="s">
         <v>534</v>
       </c>
-      <c r="C263" t="s">
-        <v>535</v>
-      </c>
       <c r="D263" t="s">
         <v>9</v>
       </c>
       <c r="E263">
-        <v>20.659379999999999</v>
+        <v>20.65701</v>
       </c>
       <c r="F263">
-        <v>-103.40195</v>
+        <v>-103.40464</v>
       </c>
       <c r="G263" t="s">
         <v>10</v>
       </c>
       <c r="H263">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I263">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B264" t="s">
+        <v>535</v>
+      </c>
+      <c r="C264" t="s">
         <v>536</v>
       </c>
-      <c r="C264" t="s">
-        <v>537</v>
-      </c>
       <c r="D264" t="s">
         <v>9</v>
       </c>
       <c r="E264">
-        <v>20.65701</v>
+        <v>20.656866000000001</v>
       </c>
       <c r="F264">
-        <v>-103.40464</v>
+        <v>-103.39772499999999</v>
       </c>
       <c r="G264" t="s">
         <v>10</v>
       </c>
       <c r="H264">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I264">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B265" t="s">
+        <v>537</v>
+      </c>
+      <c r="C265" t="s">
         <v>538</v>
       </c>
-      <c r="C265" t="s">
-        <v>539</v>
-      </c>
       <c r="D265" t="s">
         <v>9</v>
       </c>
       <c r="E265">
-        <v>20.656866000000001</v>
+        <v>20.65381</v>
       </c>
       <c r="F265">
-        <v>-103.39772499999999</v>
+        <v>-103.40134</v>
       </c>
       <c r="G265" t="s">
         <v>10</v>
       </c>
       <c r="H265">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I265">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="B266" t="s">
+        <v>539</v>
+      </c>
+      <c r="C266" t="s">
         <v>540</v>
       </c>
-      <c r="C266" t="s">
-        <v>541</v>
-      </c>
       <c r="D266" t="s">
-        <v>9</v>
+        <v>458</v>
       </c>
       <c r="E266">
-        <v>20.65381</v>
+        <v>20.729579999999999</v>
       </c>
       <c r="F266">
-        <v>-103.40134</v>
+        <v>-103.38858999999999</v>
       </c>
       <c r="G266" t="s">
         <v>10</v>
       </c>
       <c r="H266">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267" t="s">
+        <v>541</v>
+      </c>
+      <c r="C267" t="s">
         <v>542</v>
       </c>
-      <c r="C267" t="s">
-        <v>543</v>
-      </c>
       <c r="D267" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E267">
-        <v>20.729579999999999</v>
+        <v>20.7178</v>
       </c>
       <c r="F267">
-        <v>-103.38858999999999</v>
+        <v>-103.38338</v>
       </c>
       <c r="G267" t="s">
         <v>10</v>
@@ -10443,627 +10357,224 @@
       </c>
       <c r="I267">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268" t="s">
+        <v>543</v>
+      </c>
+      <c r="C268" t="s">
         <v>544</v>
       </c>
-      <c r="C268" t="s">
-        <v>545</v>
-      </c>
       <c r="D268" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E268">
-        <v>20.7178</v>
+        <v>20.73432</v>
       </c>
       <c r="F268">
-        <v>-103.38338</v>
+        <v>-103.38427</v>
       </c>
       <c r="G268" t="s">
         <v>10</v>
       </c>
       <c r="H268">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I268">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269" t="s">
+        <v>545</v>
+      </c>
+      <c r="C269" t="s">
         <v>546</v>
       </c>
-      <c r="C269" t="s">
-        <v>547</v>
-      </c>
       <c r="D269" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E269">
-        <v>20.73432</v>
+        <v>20.73837</v>
       </c>
       <c r="F269">
-        <v>-103.38427</v>
+        <v>-103.38057000000001</v>
       </c>
       <c r="G269" t="s">
         <v>10</v>
       </c>
       <c r="H269">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270" t="s">
+        <v>547</v>
+      </c>
+      <c r="C270" t="s">
         <v>548</v>
       </c>
-      <c r="C270" t="s">
-        <v>549</v>
-      </c>
       <c r="D270" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E270">
-        <v>20.73837</v>
+        <v>20.73245</v>
       </c>
       <c r="F270">
-        <v>-103.38057000000001</v>
+        <v>-103.39291</v>
       </c>
       <c r="G270" t="s">
         <v>10</v>
       </c>
       <c r="H270">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I270">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271" t="s">
+        <v>549</v>
+      </c>
+      <c r="C271" t="s">
         <v>550</v>
       </c>
-      <c r="C271" t="s">
-        <v>551</v>
-      </c>
       <c r="D271" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E271">
-        <v>20.73245</v>
+        <v>20.73836</v>
       </c>
       <c r="F271">
-        <v>-103.39291</v>
+        <v>-103.38299000000001</v>
       </c>
       <c r="G271" t="s">
         <v>10</v>
       </c>
       <c r="H271">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I271">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272" t="s">
+        <v>551</v>
+      </c>
+      <c r="C272" t="s">
         <v>552</v>
       </c>
-      <c r="C272" t="s">
-        <v>553</v>
-      </c>
       <c r="D272" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E272">
-        <v>20.73836</v>
+        <v>20.73441</v>
       </c>
       <c r="F272">
-        <v>-103.38299000000001</v>
+        <v>-103.38079</v>
       </c>
       <c r="G272" t="s">
         <v>10</v>
       </c>
       <c r="H272">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I272">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273" t="s">
+        <v>553</v>
+      </c>
+      <c r="C273" t="s">
         <v>554</v>
       </c>
-      <c r="C273" t="s">
-        <v>555</v>
-      </c>
       <c r="D273" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E273">
-        <v>20.73441</v>
+        <v>20.731539999999999</v>
       </c>
       <c r="F273">
-        <v>-103.38079</v>
+        <v>-103.38515</v>
       </c>
       <c r="G273" t="s">
         <v>10</v>
       </c>
       <c r="H273">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274" t="s">
+        <v>555</v>
+      </c>
+      <c r="C274" t="s">
         <v>556</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>557</v>
       </c>
-      <c r="D274" t="s">
-        <v>461</v>
-      </c>
       <c r="E274">
-        <v>20.731539999999999</v>
+        <v>20.713650000000001</v>
       </c>
       <c r="F274">
-        <v>-103.38515</v>
+        <v>-103.37742</v>
       </c>
       <c r="G274" t="s">
         <v>10</v>
       </c>
       <c r="H274">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I274">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A275">
-        <v>296</v>
-      </c>
-      <c r="B275" t="s">
-        <v>558</v>
-      </c>
-      <c r="C275" t="s">
-        <v>559</v>
-      </c>
-      <c r="D275" t="s">
-        <v>560</v>
-      </c>
-      <c r="E275">
-        <v>20.713650000000001</v>
-      </c>
-      <c r="F275">
-        <v>-103.37742</v>
-      </c>
-      <c r="G275" t="s">
-        <v>10</v>
-      </c>
-      <c r="H275">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="I275">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>22</v>
-      </c>
-      <c r="B276" t="s">
-        <v>561</v>
-      </c>
-      <c r="C276" t="s">
-        <v>562</v>
-      </c>
-      <c r="D276" t="s">
-        <v>9</v>
-      </c>
-      <c r="E276">
-        <v>20.678713999999999</v>
-      </c>
-      <c r="F276">
-        <v>-103.36573</v>
-      </c>
-      <c r="G276" t="s">
-        <v>563</v>
-      </c>
-      <c r="H276">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="I276">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A277">
-        <v>223</v>
-      </c>
-      <c r="B277" t="s">
-        <v>564</v>
-      </c>
-      <c r="C277" t="s">
-        <v>565</v>
-      </c>
-      <c r="D277" t="s">
-        <v>9</v>
-      </c>
-      <c r="E277">
-        <v>20.656400000000001</v>
-      </c>
-      <c r="F277">
-        <v>-103.38956</v>
-      </c>
-      <c r="G277" t="s">
-        <v>563</v>
-      </c>
-      <c r="H277">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="I277">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A278">
-        <v>250</v>
-      </c>
-      <c r="B278" t="s">
-        <v>566</v>
-      </c>
-      <c r="C278" t="s">
-        <v>567</v>
-      </c>
-      <c r="D278" t="s">
-        <v>9</v>
-      </c>
-      <c r="E278">
-        <v>20.6969715</v>
-      </c>
-      <c r="F278">
-        <v>-103.3581976</v>
-      </c>
-      <c r="G278" t="s">
-        <v>563</v>
-      </c>
-      <c r="H278">
-        <f t="shared" ca="1" si="8"/>
         <v>8</v>
-      </c>
-      <c r="I278">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A279">
-        <v>147</v>
-      </c>
-      <c r="B279" t="s">
-        <v>568</v>
-      </c>
-      <c r="C279" t="s">
-        <v>569</v>
-      </c>
-      <c r="D279" t="s">
-        <v>327</v>
-      </c>
-      <c r="E279">
-        <v>20.641848</v>
-      </c>
-      <c r="F279">
-        <v>-103.3026</v>
-      </c>
-      <c r="G279" t="s">
-        <v>563</v>
-      </c>
-      <c r="H279">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="I279">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A280">
-        <v>94</v>
-      </c>
-      <c r="B280" t="s">
-        <v>570</v>
-      </c>
-      <c r="C280" t="s">
-        <v>570</v>
-      </c>
-      <c r="D280" t="s">
-        <v>461</v>
-      </c>
-      <c r="E280">
-        <v>20.729222199999999</v>
-      </c>
-      <c r="F280">
-        <v>-103.3952005</v>
-      </c>
-      <c r="G280" t="s">
-        <v>563</v>
-      </c>
-      <c r="H280">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="I280">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A281">
-        <v>97</v>
-      </c>
-      <c r="B281" t="s">
-        <v>571</v>
-      </c>
-      <c r="C281" t="s">
-        <v>572</v>
-      </c>
-      <c r="D281" t="s">
-        <v>461</v>
-      </c>
-      <c r="E281">
-        <v>20.726196000000002</v>
-      </c>
-      <c r="F281">
-        <v>-103.392672</v>
-      </c>
-      <c r="G281" t="s">
-        <v>563</v>
-      </c>
-      <c r="H281">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="I281">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A282">
-        <v>99</v>
-      </c>
-      <c r="B282" t="s">
-        <v>573</v>
-      </c>
-      <c r="C282" t="s">
-        <v>574</v>
-      </c>
-      <c r="D282" t="s">
-        <v>461</v>
-      </c>
-      <c r="E282">
-        <v>20.685108</v>
-      </c>
-      <c r="F282">
-        <v>-103.333746</v>
-      </c>
-      <c r="G282" t="s">
-        <v>563</v>
-      </c>
-      <c r="H282">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="I282">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A283">
-        <v>109</v>
-      </c>
-      <c r="B283" t="s">
-        <v>575</v>
-      </c>
-      <c r="C283" t="s">
-        <v>576</v>
-      </c>
-      <c r="D283" t="s">
-        <v>461</v>
-      </c>
-      <c r="E283">
-        <v>20.723220699999999</v>
-      </c>
-      <c r="F283">
-        <v>-103.3855829</v>
-      </c>
-      <c r="G283" t="s">
-        <v>563</v>
-      </c>
-      <c r="H283">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="I283">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A284">
-        <v>113</v>
-      </c>
-      <c r="B284" t="s">
-        <v>577</v>
-      </c>
-      <c r="C284" t="s">
-        <v>578</v>
-      </c>
-      <c r="D284" t="s">
-        <v>461</v>
-      </c>
-      <c r="E284">
-        <v>20.724889999999998</v>
-      </c>
-      <c r="F284">
-        <v>-103.38361399999999</v>
-      </c>
-      <c r="G284" t="s">
-        <v>563</v>
-      </c>
-      <c r="H284">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="I284">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>114</v>
-      </c>
-      <c r="B285" t="s">
-        <v>579</v>
-      </c>
-      <c r="C285" t="s">
-        <v>580</v>
-      </c>
-      <c r="D285" t="s">
-        <v>461</v>
-      </c>
-      <c r="E285">
-        <v>20.723559999999999</v>
-      </c>
-      <c r="F285">
-        <v>-103.381901</v>
-      </c>
-      <c r="G285" t="s">
-        <v>563</v>
-      </c>
-      <c r="H285">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="I285">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>116</v>
-      </c>
-      <c r="B286" t="s">
-        <v>581</v>
-      </c>
-      <c r="C286" t="s">
-        <v>582</v>
-      </c>
-      <c r="D286" t="s">
-        <v>461</v>
-      </c>
-      <c r="E286">
-        <v>20.686920000000001</v>
-      </c>
-      <c r="F286">
-        <v>-103.33467</v>
-      </c>
-      <c r="G286" t="s">
-        <v>563</v>
-      </c>
-      <c r="H286">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="I286">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A287">
-        <v>138</v>
-      </c>
-      <c r="B287" t="s">
-        <v>583</v>
-      </c>
-      <c r="C287" t="s">
-        <v>583</v>
-      </c>
-      <c r="D287" t="s">
-        <v>9</v>
-      </c>
-      <c r="E287">
-        <v>20.697050000000001</v>
-      </c>
-      <c r="F287">
-        <v>-103.36322</v>
-      </c>
-      <c r="G287" t="s">
-        <v>563</v>
-      </c>
-      <c r="H287">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="I287">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
       </c>
     </row>
   </sheetData>
